--- a/data/hotels_by_city/Houston/Houston_shard_293.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_293.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="840">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d9776353-Reviews-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
   </si>
   <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Hilton-Garden-Inn-Houston-NWWillowbrook.h876879.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2398 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r597356338-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>9776353</t>
+  </si>
+  <si>
+    <t>597356338</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>Beautiful Property...Service Not So Much</t>
+  </si>
+  <si>
+    <t>The hotel is actually really nice looking. It is less than two years old. We had an event there and the service was horrible. I even tried to send an email to the manager so he could be aware but he turned out to be rude as well. The front line staff is pretty nice and helpful but the management could use some work.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r595681207-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>595681207</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>Excellent, clean, safe, reasonable price.</t>
+  </si>
+  <si>
+    <t>Was originally going to stay at competitor a couple doors down for a few bucks cheaper.  However, the vehicles in their parking lot all looked less than desireable.  Opted for slightly higher priced (only by $10) for what appeared to have a better clientele of cars.  I felt safe and was very happy with all.  Very clean. very helpful. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>CHRISITNE R, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Was originally going to stay at competitor a couple doors down for a few bucks cheaper.  However, the vehicles in their parking lot all looked less than desireable.  Opted for slightly higher priced (only by $10) for what appeared to have a better clientele of cars.  I felt safe and was very happy with all.  Very clean. very helpful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r595430760-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>595430760</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>The bartender was awesome!!!!</t>
+  </si>
+  <si>
+    <t>I stayed there with my girlfriend and the room and service was great. The bartender edgar was excellent!!!! He gave us great service, was outgoing and made great drinks!!! If you stay here you must visit the bar and ask for edgar!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I stayed there with my girlfriend and the room and service was great. The bartender edgar was excellent!!!! He gave us great service, was outgoing and made great drinks!!! If you stay here you must visit the bar and ask for edgar!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r589326890-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>589326890</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>New, modern and built with all you need for business and a good rest. Clean and quiet is located near all restaurants you want for a nice dinner. Near the highway but far enough to keep it quiet. People very friendly. If you are in the area this is the place to stay MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>CHRISITNE R, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded June 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2018</t>
+  </si>
+  <si>
+    <t>New, modern and built with all you need for business and a good rest. Clean and quiet is located near all restaurants you want for a nice dinner. Near the highway but far enough to keep it quiet. People very friendly. If you are in the area this is the place to stay More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r589066107-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>589066107</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Great staff!</t>
+  </si>
+  <si>
+    <t>I have to travel for work every week and when I am in Houston, this is one of my favorite hotels at which to stay. Not only does it have a better than average gym, equipped with dumbbells and medicine balls, but the staff is wonderful. Edgar at the bar is so personable and always happy to serve you. He remembers those staying at the hotel and will greet you with a smile.  Great food and even better service!MoreShow less</t>
+  </si>
+  <si>
+    <t>I have to travel for work every week and when I am in Houston, this is one of my favorite hotels at which to stay. Not only does it have a better than average gym, equipped with dumbbells and medicine balls, but the staff is wonderful. Edgar at the bar is so personable and always happy to serve you. He remembers those staying at the hotel and will greet you with a smile.  Great food and even better service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r588158861-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>588158861</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>Wonderful experience</t>
+  </si>
+  <si>
+    <t>We really enjoyed staying at this hotel, it was clean and the staff was friendly. The breakfast was very good, we didn't get the chance to try lunch or dinner although I'm sure it would have been very good also. We will definitely stay at this hotel again if we need to stay in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>CHRISITNE R, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded June 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2018</t>
+  </si>
+  <si>
+    <t>We really enjoyed staying at this hotel, it was clean and the staff was friendly. The breakfast was very good, we didn't get the chance to try lunch or dinner although I'm sure it would have been very good also. We will definitely stay at this hotel again if we need to stay in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r581324746-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>581324746</t>
+  </si>
+  <si>
+    <t>05/19/2018</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Loved my stay, food was yummy. the only problem was the bathroom was a little dirty.  Hair in the shower that was obviously not mine.  The bed was very comfortable.  Oh and for some reason the people were at the pool at midnight and were very loud as my window was above the pool.  MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>TimP160WagonPoint, General Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Loved my stay, food was yummy. the only problem was the bathroom was a little dirty.  Hair in the shower that was obviously not mine.  The bed was very comfortable.  Oh and for some reason the people were at the pool at midnight and were very loud as my window was above the pool.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r580946456-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>580946456</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t>Edgar</t>
+  </si>
+  <si>
+    <t>Edgar was such a great experience. I was running a little to my room from  and edgar took the time to assist me. He was very personable and engage with every customer that came up. Edgar was very personable. The experience was excellentMoreShow less</t>
+  </si>
+  <si>
+    <t>CHRISITNE R, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded May 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2018</t>
+  </si>
+  <si>
+    <t>Edgar was such a great experience. I was running a little to my room from  and edgar took the time to assist me. He was very personable and engage with every customer that came up. Edgar was very personable. The experience was excellentMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r580004691-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>580004691</t>
+  </si>
+  <si>
+    <t>05/13/2018</t>
+  </si>
+  <si>
+    <t>Hilton Garden Inn Houston</t>
+  </si>
+  <si>
+    <t>Great place to stay. Night staff at the restaurant is really great! Highly recommend if you’re in the Houston area. Great environment at the bar. Only downside is the breakfast servers are inattentive.MoreShow less</t>
+  </si>
+  <si>
+    <t>CHRISITNE R, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded May 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2018</t>
+  </si>
+  <si>
+    <t>Great place to stay. Night staff at the restaurant is really great! Highly recommend if you’re in the Houston area. Great environment at the bar. Only downside is the breakfast servers are inattentive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r579051836-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579051836</t>
+  </si>
+  <si>
+    <t>05/09/2018</t>
+  </si>
+  <si>
+    <t>Newer Property - Excellent Price - Great Service</t>
+  </si>
+  <si>
+    <t>I stayed at the property when it first opened (see my review).  I've stayed several times since.  I'm pleased that the price has remained steady and delighted that the service is still great.  I love that I'm remembered from visit to visit although it may be 6 months between visits.  Linda and Denise provide outstanding service at breakfast.  Edgar's service in the evening whether at the bar or for room service is outstanding as well.  I look forward to seeing them the next time I'm in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>TimP160WagonPoint, General Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded May 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2018</t>
+  </si>
+  <si>
+    <t>I stayed at the property when it first opened (see my review).  I've stayed several times since.  I'm pleased that the price has remained steady and delighted that the service is still great.  I love that I'm remembered from visit to visit although it may be 6 months between visits.  Linda and Denise provide outstanding service at breakfast.  Edgar's service in the evening whether at the bar or for room service is outstanding as well.  I look forward to seeing them the next time I'm in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r577698771-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577698771</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Great Room and Service</t>
+  </si>
+  <si>
+    <t>I travel a lot for business and started staying here for the price, but the people there are the reason I stay here.  I noticed that there were some low rated reviews based on service, but it looks like they have resolved the personnel issues.  From Tony at the front desk in the evenings, Terry at the desk in the morning and Denisse and Linda that serve breakfast, they are all great folks (and the hot breakfast has a good variety.  Somebody in the office must be doing something right because everyone I run into seem happy to be working there.The rooms are very clean and well stocked with towels and wash cloths (another review had a issue with wash cloths but it appears they have fixed this too).  The team a this hotel appears to really care and try and resolve any issues that are reported.  Any business will have issues, the great ones are evaluated on how they address the issues.  This place looks like they are address the issues that are brought up to them.Keep up the good work!MoreShow less</t>
+  </si>
+  <si>
+    <t>CHRISITNE R, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2018</t>
+  </si>
+  <si>
+    <t>I travel a lot for business and started staying here for the price, but the people there are the reason I stay here.  I noticed that there were some low rated reviews based on service, but it looks like they have resolved the personnel issues.  From Tony at the front desk in the evenings, Terry at the desk in the morning and Denisse and Linda that serve breakfast, they are all great folks (and the hot breakfast has a good variety.  Somebody in the office must be doing something right because everyone I run into seem happy to be working there.The rooms are very clean and well stocked with towels and wash cloths (another review had a issue with wash cloths but it appears they have fixed this too).  The team a this hotel appears to really care and try and resolve any issues that are reported.  Any business will have issues, the great ones are evaluated on how they address the issues.  This place looks like they are address the issues that are brought up to them.Keep up the good work!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r577094854-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577094854</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>Outstanding Hotel in the Houston Area</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel, With a Great made to order Breakfast. Very Clean, and Hospitable.Linda and Denisse in the restaurant are exceptional. Love the warm welcome I receive from Manager Christine.I always stay here when in the Houston area. Hilton Honors Diamond MemberMoreShow less</t>
+  </si>
+  <si>
+    <t>CHRISITNE R, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded May 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2018</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel, With a Great made to order Breakfast. Very Clean, and Hospitable.Linda and Denisse in the restaurant are exceptional. Love the warm welcome I receive from Manager Christine.I always stay here when in the Houston area. Hilton Honors Diamond MemberMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r574057208-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>574057208</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent Staff and Rooms </t>
+  </si>
+  <si>
+    <t>Normally don’t eat at the hotel restaurants at Hilton Garden Inns due to the lack of food choices, but glad I did this time. My server, who’s name is Meet, was definitely exceptional and deserves to be recognized for it. She went the extra mile to make sure my picky requests were executed perfectly. It’s really nice to have a server like her who actually seems like she enjoys her job. The staff up front was very nice and helpful as well. I just can’t remember their names. I will definitely stay here again when I come back to Houston. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>CHRISITNE R, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Normally don’t eat at the hotel restaurants at Hilton Garden Inns due to the lack of food choices, but glad I did this time. My server, who’s name is Meet, was definitely exceptional and deserves to be recognized for it. She went the extra mile to make sure my picky requests were executed perfectly. It’s really nice to have a server like her who actually seems like she enjoys her job. The staff up front was very nice and helpful as well. I just can’t remember their names. I will definitely stay here again when I come back to Houston. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r572957812-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>572957812</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>Clean hotel, great staff make it worth coming back to. Edgar and Meet are exceptional staff and very customer oriented. Rooms are clean and modern, hotel is close to many good restaurants and Houston Intercontinental Airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean hotel, great staff make it worth coming back to. Edgar and Meet are exceptional staff and very customer oriented. Rooms are clean and modern, hotel is close to many good restaurants and Houston Intercontinental Airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r572691161-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>572691161</t>
+  </si>
+  <si>
+    <t>04/11/2018</t>
+  </si>
+  <si>
+    <t>Greatfull!</t>
+  </si>
+  <si>
+    <t>We received great service and everything was well priced at this location! Even a few minor “issues” were well accommodated and addressed in such a way thatputs guests first. We will definitely stay here again during our future visits. MoreShow less</t>
+  </si>
+  <si>
+    <t>CHRISITNE R, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded April 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2018</t>
+  </si>
+  <si>
+    <t>We received great service and everything was well priced at this location! Even a few minor “issues” were well accommodated and addressed in such a way thatputs guests first. We will definitely stay here again during our future visits. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r571781760-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571781760</t>
+  </si>
+  <si>
+    <t>04/07/2018</t>
+  </si>
+  <si>
+    <t>4 day Business trip</t>
+  </si>
+  <si>
+    <t>Excellent hotel experience. The hotel decor is modern chic. The staff provided superb service from the time of arrival to departure. The breakfast was excellent and a good selection of menu items for lunch and dinner and a nightly happy hour. There are many good restaurants near by. Conveniently located close to Bush International Airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>CHRISITNE R, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded April 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2018</t>
+  </si>
+  <si>
+    <t>Excellent hotel experience. The hotel decor is modern chic. The staff provided superb service from the time of arrival to departure. The breakfast was excellent and a good selection of menu items for lunch and dinner and a nightly happy hour. There are many good restaurants near by. Conveniently located close to Bush International Airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r571741872-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571741872</t>
+  </si>
+  <si>
+    <t>Excellent hotel and Bar</t>
+  </si>
+  <si>
+    <t>This is a great hotel with excellent service. The bartender Edgar is second to none. He makes everyone feel at home. They were out of a couple different beers and wines, but he did all he could to accommodate everyone. Ask Edgar about the wine labels that come to life.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a great hotel with excellent service. The bartender Edgar is second to none. He makes everyone feel at home. They were out of a couple different beers and wines, but he did all he could to accommodate everyone. Ask Edgar about the wine labels that come to life.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r571331615-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571331615</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>Avoid</t>
+  </si>
+  <si>
+    <t>This property does Not have an airport shuttle to IAD. A taxi to this property cost me $28 and a van to IAD the next day cost me $40. Not pleased. It was IMPOSSIBLE to print airline boarding passes from their Business Center. Can you imagine?MoreShow less</t>
+  </si>
+  <si>
+    <t>CHRISITNE R, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded April 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2018</t>
+  </si>
+  <si>
+    <t>This property does Not have an airport shuttle to IAD. A taxi to this property cost me $28 and a van to IAD the next day cost me $40. Not pleased. It was IMPOSSIBLE to print airline boarding passes from their Business Center. Can you imagine?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r570227510-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>570227510</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Great restaurant and bar area</t>
+  </si>
+  <si>
+    <t>Our server for the restaurant,  Edgar, was extremely friendly .   We were there for 10 days on business and he made us feel welcome and at home.  Food was great and our overall stay was very satisfactory..   But the restaurant and their service make this hotel.   Thanks Edgar!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>CHRISITNE R, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Our server for the restaurant,  Edgar, was extremely friendly .   We were there for 10 days on business and he made us feel welcome and at home.  Food was great and our overall stay was very satisfactory..   But the restaurant and their service make this hotel.   Thanks Edgar!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r569610675-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569610675</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t>Great job!</t>
+  </si>
+  <si>
+    <t>I had a fantastic experience at this hotel. Well managed, clean, nice rooms. Really great helpful friendly staff- shout out to Terry who was working late when I got in- very positive friendly and helpful- he made my whole stay wonderful- kudos to having caring great staff at all hours.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a fantastic experience at this hotel. Well managed, clean, nice rooms. Really great helpful friendly staff- shout out to Terry who was working late when I got in- very positive friendly and helpful- he made my whole stay wonderful- kudos to having caring great staff at all hours.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r568352278-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>568352278</t>
+  </si>
+  <si>
+    <t>03/23/2018</t>
+  </si>
+  <si>
+    <t>Great hotel and people</t>
+  </si>
+  <si>
+    <t>Fantastic HGI!  New facility, great people, reasonable price, excellent food and warm and friendly people.   Bartender, Edgar Gutierrez,  and wait staff are very friendly and treat you like family.  Rooms are clean, pool and Jacuzzi clean and inviting. Fitness room has plenty of state of the art equipment and free weightsMoreShow less</t>
+  </si>
+  <si>
+    <t>CHRISITNE R, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded March 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2018</t>
+  </si>
+  <si>
+    <t>Fantastic HGI!  New facility, great people, reasonable price, excellent food and warm and friendly people.   Bartender, Edgar Gutierrez,  and wait staff are very friendly and treat you like family.  Rooms are clean, pool and Jacuzzi clean and inviting. Fitness room has plenty of state of the art equipment and free weightsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r562601502-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562601502</t>
+  </si>
+  <si>
+    <t>02/24/2018</t>
+  </si>
+  <si>
+    <t>Awesome place to stay!!</t>
+  </si>
+  <si>
+    <t>My stay for two nights was phenomenal. The staff is awesome especially the bartender Edgar. He was very friendly and accommodating. He gets 10 stars!! Christine also gave excellent customer service. I will definitely be staying here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>CHRISITNE R, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded February 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2018</t>
+  </si>
+  <si>
+    <t>My stay for two nights was phenomenal. The staff is awesome especially the bartender Edgar. He was very friendly and accommodating. He gets 10 stars!! Christine also gave excellent customer service. I will definitely be staying here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r562205182-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562205182</t>
+  </si>
+  <si>
+    <t>02/22/2018</t>
+  </si>
+  <si>
+    <t>What a wonderful hotel!</t>
+  </si>
+  <si>
+    <t>I truly love this hotel and the staff is amazing!  Edgar, hotel bartender, is AMAZING!  The sweet girl at breakfast remembered that I loved cranberry juice instead of orange!  Room was great!  Great location!MoreShow less</t>
+  </si>
+  <si>
+    <t>CHRISITNE R, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded February 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2018</t>
+  </si>
+  <si>
+    <t>I truly love this hotel and the staff is amazing!  Edgar, hotel bartender, is AMAZING!  The sweet girl at breakfast remembered that I loved cranberry juice instead of orange!  Room was great!  Great location!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r559813533-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>559813533</t>
+  </si>
+  <si>
+    <t>02/11/2018</t>
+  </si>
+  <si>
+    <t>Really nice staff &amp; beautiful rooms</t>
+  </si>
+  <si>
+    <t>Checked in online &amp; selected a room on the top floor.   When I arrived I was told the guest had extended &amp; that room wasn't available.   My new room was on the 3rd floor &amp; at around 1am the guest in the room above me either checked in or came in late.   I could hear EVERYTHING!  The rooms aren't carpeted so you can hear the person above you walking, rolling their suitcase,  pulling out chairs,  etc.   Needless to say I wasn't happy with this,  but this is an architectural problem,  not a hotel problem.   If I visit again,  I'll insist on a top floor room, no exceptions.   Edgar &amp; Meet at the bar were top notch,  truly an asset to the hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>CHRISITNE R, Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded February 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2018</t>
+  </si>
+  <si>
+    <t>Checked in online &amp; selected a room on the top floor.   When I arrived I was told the guest had extended &amp; that room wasn't available.   My new room was on the 3rd floor &amp; at around 1am the guest in the room above me either checked in or came in late.   I could hear EVERYTHING!  The rooms aren't carpeted so you can hear the person above you walking, rolling their suitcase,  pulling out chairs,  etc.   Needless to say I wasn't happy with this,  but this is an architectural problem,  not a hotel problem.   If I visit again,  I'll insist on a top floor room, no exceptions.   Edgar &amp; Meet at the bar were top notch,  truly an asset to the hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r551924029-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>551924029</t>
+  </si>
+  <si>
+    <t>01/05/2018</t>
+  </si>
+  <si>
+    <t>A blessing</t>
+  </si>
+  <si>
+    <t>I lost everything I own during Harvey. The front desk staff (Shivonne, Terry and Christina )was a great pleasure to be around and they had real sympathy &amp; empathy. They will always give you smile and make you feel welcome. Unlike the manager she very rude and unprofessional!!! She needs training in customer service because that's far for what she offers. She treats FEMA guest like bums off the street. Like we're the gum at the bottom of her shoe. FEMA paid top rate for people to stay there just like any other guest. Then to be treat like that by the manager (Eileen), treating people like there free loaders. I can't believe she is the manager. Management don't believe me ask your guest. 4/5 people will give her thrumps down You see my words ring the truth. Good luck with your business if she will continue to represents the Hilton standards.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>CHRISITNE R, Operations Manager  at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded January 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2018</t>
+  </si>
+  <si>
+    <t>I lost everything I own during Harvey. The front desk staff (Shivonne, Terry and Christina )was a great pleasure to be around and they had real sympathy &amp; empathy. They will always give you smile and make you feel welcome. Unlike the manager she very rude and unprofessional!!! She needs training in customer service because that's far for what she offers. She treats FEMA guest like bums off the street. Like we're the gum at the bottom of her shoe. FEMA paid top rate for people to stay there just like any other guest. Then to be treat like that by the manager (Eileen), treating people like there free loaders. I can't believe she is the manager. Management don't believe me ask your guest. 4/5 people will give her thrumps down You see my words ring the truth. Good luck with your business if she will continue to represents the Hilton standards.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r551590011-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>551590011</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Poor Customer Service</t>
+  </si>
+  <si>
+    <t>The manager at the site pays more attention to her phone than the guests.  If the bar is closed at least stock up your store.  I placed a wake up call and didn't get one.  I'm glad i woke up still inn time!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>CHRISITNE R, Operations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded January 11, 2018</t>
+  </si>
+  <si>
+    <t>The manager at the site pays more attention to her phone than the guests.  If the bar is closed at least stock up your store.  I placed a wake up call and didn't get one.  I'm glad i woke up still inn time!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r551073641-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>551073641</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>Great stay. The rooms were very clean and well kept. The staff was friendly and helpful. Breakfast was good as well with staff preparing it right in front of you. Overall from check-in to check-out I had no complaints.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Great stay. The rooms were very clean and well kept. The staff was friendly and helpful. Breakfast was good as well with staff preparing it right in front of you. Overall from check-in to check-out I had no complaints.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r545558787-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545558787</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>Nice but needs work</t>
+  </si>
+  <si>
+    <t>I was a little disappointed after a great reception and the promise of a new hotel. The first two things were the door to the bathroom - my wife could not slide it at all and I had to put my full weight to opening - so it was left open.  The main door would not lock.  These were mentioned to reception but not fixed while we were there.  There are always teething problems with new builds but these were so obvious that I would expect them to be picked up by the staff not the customer.  The only other annoying thing was breakfast and having to give an order to a staff member who then passed it on to the chef, just seemed to be totally unnecessary (and she got the order wrong) and the first time I have come across this additional step in this chain.  I can imagine it would work better if busy but this was not at all.I passed on my comments at the time and formally and have had a great response from the manager.  We will give them another try when back in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>CHRISITNE R, Operations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded December 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2017</t>
+  </si>
+  <si>
+    <t>I was a little disappointed after a great reception and the promise of a new hotel. The first two things were the door to the bathroom - my wife could not slide it at all and I had to put my full weight to opening - so it was left open.  The main door would not lock.  These were mentioned to reception but not fixed while we were there.  There are always teething problems with new builds but these were so obvious that I would expect them to be picked up by the staff not the customer.  The only other annoying thing was breakfast and having to give an order to a staff member who then passed it on to the chef, just seemed to be totally unnecessary (and she got the order wrong) and the first time I have come across this additional step in this chain.  I can imagine it would work better if busy but this was not at all.I passed on my comments at the time and formally and have had a great response from the manager.  We will give them another try when back in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r544517591-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>544517591</t>
+  </si>
+  <si>
+    <t>12/01/2017</t>
+  </si>
+  <si>
+    <t>New hotel that seems to be a work in progress</t>
+  </si>
+  <si>
+    <t>We stayed here rather than a hotel closer to the airport. It seemed nice enough when we walked in, although the seating arrangement in the dining area immediately struck me as odd - a long row of tables, like a school dining hall. Receptionist was okay. Our room 333 had problems: Really noisy aircon, plus other equipment-style buzzes and whistles that I could not identify, which made it hard for me to get to sleep. Could not lock the room door - in fact when viewed from the other side of the bed, it was clear that the whole door seemed to be set in at an angle, which may be why the lock could not be secured. Almost impossible to close the sliding door to the bathroom - the rail was broken. (We reported this and were told someone would be up to fix it, but we did not see anyone in the 24 hours that we were there.) There was no carpet across the floor, just a tiled floor that was cold to bare feet, with a piece of carpet under the bed that was only just a little larger than the bed itself - not sure what the point was of that piece of carpet, since it wasn't big enough to use it like a bedside rug. Armchair was on wheels and because of the tiled floor it skidded around like a kid's toy. The side table...We stayed here rather than a hotel closer to the airport. It seemed nice enough when we walked in, although the seating arrangement in the dining area immediately struck me as odd - a long row of tables, like a school dining hall. Receptionist was okay. Our room 333 had problems: Really noisy aircon, plus other equipment-style buzzes and whistles that I could not identify, which made it hard for me to get to sleep. Could not lock the room door - in fact when viewed from the other side of the bed, it was clear that the whole door seemed to be set in at an angle, which may be why the lock could not be secured. Almost impossible to close the sliding door to the bathroom - the rail was broken. (We reported this and were told someone would be up to fix it, but we did not see anyone in the 24 hours that we were there.) There was no carpet across the floor, just a tiled floor that was cold to bare feet, with a piece of carpet under the bed that was only just a little larger than the bed itself - not sure what the point was of that piece of carpet, since it wasn't big enough to use it like a bedside rug. Armchair was on wheels and because of the tiled floor it skidded around like a kid's toy. The side table made a terrible noise if you happened to knock it or try to move it - maybe echoing on the hard tiled floor? An office-type chair was provided at a desk area near the window, but no light there to do any work. No flannels in the bathroom. A long black hair was stuck to the wall in the shower. The shower itself was nice. The bed was comfortable. Plenty of powerpoints. But all in all not what we are used to at a Hilton chain property.MoreShow less</t>
+  </si>
+  <si>
+    <t>CHRISITNE R, Operations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded December 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here rather than a hotel closer to the airport. It seemed nice enough when we walked in, although the seating arrangement in the dining area immediately struck me as odd - a long row of tables, like a school dining hall. Receptionist was okay. Our room 333 had problems: Really noisy aircon, plus other equipment-style buzzes and whistles that I could not identify, which made it hard for me to get to sleep. Could not lock the room door - in fact when viewed from the other side of the bed, it was clear that the whole door seemed to be set in at an angle, which may be why the lock could not be secured. Almost impossible to close the sliding door to the bathroom - the rail was broken. (We reported this and were told someone would be up to fix it, but we did not see anyone in the 24 hours that we were there.) There was no carpet across the floor, just a tiled floor that was cold to bare feet, with a piece of carpet under the bed that was only just a little larger than the bed itself - not sure what the point was of that piece of carpet, since it wasn't big enough to use it like a bedside rug. Armchair was on wheels and because of the tiled floor it skidded around like a kid's toy. The side table...We stayed here rather than a hotel closer to the airport. It seemed nice enough when we walked in, although the seating arrangement in the dining area immediately struck me as odd - a long row of tables, like a school dining hall. Receptionist was okay. Our room 333 had problems: Really noisy aircon, plus other equipment-style buzzes and whistles that I could not identify, which made it hard for me to get to sleep. Could not lock the room door - in fact when viewed from the other side of the bed, it was clear that the whole door seemed to be set in at an angle, which may be why the lock could not be secured. Almost impossible to close the sliding door to the bathroom - the rail was broken. (We reported this and were told someone would be up to fix it, but we did not see anyone in the 24 hours that we were there.) There was no carpet across the floor, just a tiled floor that was cold to bare feet, with a piece of carpet under the bed that was only just a little larger than the bed itself - not sure what the point was of that piece of carpet, since it wasn't big enough to use it like a bedside rug. Armchair was on wheels and because of the tiled floor it skidded around like a kid's toy. The side table made a terrible noise if you happened to knock it or try to move it - maybe echoing on the hard tiled floor? An office-type chair was provided at a desk area near the window, but no light there to do any work. No flannels in the bathroom. A long black hair was stuck to the wall in the shower. The shower itself was nice. The bed was comfortable. Plenty of powerpoints. But all in all not what we are used to at a Hilton chain property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r543878498-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543878498</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>dirty shower and unhelpful staff</t>
+  </si>
+  <si>
+    <t>the shower had body hair in it. the breakfast staff did not even acknowledge our presence. they did not ask if we were a part of the wedding or if they could help us...just had us read the sign to figure out what to do so we didn't even use our free breakfast vouchers MoreShow less</t>
+  </si>
+  <si>
+    <t>TimP160WagonPoint, General Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded December 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2017</t>
+  </si>
+  <si>
+    <t>the shower had body hair in it. the breakfast staff did not even acknowledge our presence. they did not ask if we were a part of the wedding or if they could help us...just had us read the sign to figure out what to do so we didn't even use our free breakfast vouchers More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r540534812-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540534812</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Architect</t>
+  </si>
+  <si>
+    <t>Lovely hotel in great location. The staff was helpful in every occasion including the breakfast staff, always a nice experience with Linda and Denise. Rooms are huge and shower with several shelves is great. The bed is a little soft for me but loved the many pillows. The tea to go is a nice touch. Will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>CHRISITNE R, Operations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded November 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2017</t>
+  </si>
+  <si>
+    <t>Lovely hotel in great location. The staff was helpful in every occasion including the breakfast staff, always a nice experience with Linda and Denise. Rooms are huge and shower with several shelves is great. The bed is a little soft for me but loved the many pillows. The tea to go is a nice touch. Will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r539883463-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539883463</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Awesome Hotel</t>
+  </si>
+  <si>
+    <t>my kids and I really enjoyed our stay at the hotel , everything was perfect. We forgot a few items and the hotel supplied what we needed . Every staff we came in contact with was very helpful and courteous . Most definitely staying here againMoreShow less</t>
+  </si>
+  <si>
+    <t>TimP160WagonPoint, General Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded November 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2017</t>
+  </si>
+  <si>
+    <t>my kids and I really enjoyed our stay at the hotel , everything was perfect. We forgot a few items and the hotel supplied what we needed . Every staff we came in contact with was very helpful and courteous . Most definitely staying here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r539401871-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539401871</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>Great Morning Staff!</t>
+  </si>
+  <si>
+    <t>Everyone is absolutely helpful during this rough time for Houston.  The breakfast staff has been the greatest! No hesitation to take care of everyone and they actually remember what we ordered before.  No greater group from the hostesses/waitresses to the cooks.  These ladies really make me feel home being away from home.  Thank you all!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Alex L, Administrative Assistant at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded November 10, 2017</t>
+  </si>
+  <si>
+    <t>Everyone is absolutely helpful during this rough time for Houston.  The breakfast staff has been the greatest! No hesitation to take care of everyone and they actually remember what we ordered before.  No greater group from the hostesses/waitresses to the cooks.  These ladies really make me feel home being away from home.  Thank you all!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r538111578-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538111578</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t>Customer Service Training is Needed... And Bring Your Own Washcloths</t>
+  </si>
+  <si>
+    <t>I am a weekly business traveler and I travel to Spring, TX often.  As a Diamond member, I have always used Hilton brand hotels.  And over the past 5 years and this was honestly my worst experience.  Unfortunately, I decided to try a different HGI to experience a different side of North Houston and explore more of the city.  HUGE MISTAKE!  
+When I attempted to check in on Sunday evening, the young lady behind the counter never acknowledged me during her personal phone call.  Upon arriving to my room, there were no washcloths in the bathroom.  I assumed I would at least get two.  I went to the front desk and there were four employees gathered around.  I said “Excuse me” several times while trying to get their attention from their laughing and talking about a guy they saw on television.  After about a minute, a lady with a very strong accent asked what I needed.  I informed them that I needed a washcloth.  They all laughed.  One of the young ladies went to the back.  She came back and said there was only one left; all others were dirty.  She literally handed me an old cloth that seemed to have had better days.  I thanked her and went back to my room.  Thank God I bring a spare washcloth with me when I travel.  Throughout the week, every time I came by the front desk, if a female was...I am a weekly business traveler and I travel to Spring, TX often.  As a Diamond member, I have always used Hilton brand hotels.  And over the past 5 years and this was honestly my worst experience.  Unfortunately, I decided to try a different HGI to experience a different side of North Houston and explore more of the city.  HUGE MISTAKE!  When I attempted to check in on Sunday evening, the young lady behind the counter never acknowledged me during her personal phone call.  Upon arriving to my room, there were no washcloths in the bathroom.  I assumed I would at least get two.  I went to the front desk and there were four employees gathered around.  I said “Excuse me” several times while trying to get their attention from their laughing and talking about a guy they saw on television.  After about a minute, a lady with a very strong accent asked what I needed.  I informed them that I needed a washcloth.  They all laughed.  One of the young ladies went to the back.  She came back and said there was only one left; all others were dirty.  She literally handed me an old cloth that seemed to have had better days.  I thanked her and went back to my room.  Thank God I bring a spare washcloth with me when I travel.  Throughout the week, every time I came by the front desk, if a female was there, she never seemed to acknowledge anyone and was always on the phone or eating.  I will say that there are four individuals that truly saved my week and my stay.  A huge thank you and hug to: Terry (gentleman at front desk), Edgar (gentleman handling the restaurant at night), Linda and Diane (ladies handling the restaurant at breakfast).  The four of them acknowledged every person with kindness, a smile, and wonderful customer service.  THANK YOU!As for the hotel, it is updated and looks like the many other HGIs I have frequented nationwide.  Unfortunately, they do not have the customer service skills that I have become accustomed to experiencing as a guest of Hilton brand hotels over the years.  Lesson from this experience: Stick to what you know.  What does that mean for me?  When I travel to Spring, TX, I'll stay at the HGI North Houston Spring.MoreShow less</t>
+  </si>
+  <si>
+    <t>TimP160WagonPoint, General Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded November 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2017</t>
+  </si>
+  <si>
+    <t>I am a weekly business traveler and I travel to Spring, TX often.  As a Diamond member, I have always used Hilton brand hotels.  And over the past 5 years and this was honestly my worst experience.  Unfortunately, I decided to try a different HGI to experience a different side of North Houston and explore more of the city.  HUGE MISTAKE!  
+When I attempted to check in on Sunday evening, the young lady behind the counter never acknowledged me during her personal phone call.  Upon arriving to my room, there were no washcloths in the bathroom.  I assumed I would at least get two.  I went to the front desk and there were four employees gathered around.  I said “Excuse me” several times while trying to get their attention from their laughing and talking about a guy they saw on television.  After about a minute, a lady with a very strong accent asked what I needed.  I informed them that I needed a washcloth.  They all laughed.  One of the young ladies went to the back.  She came back and said there was only one left; all others were dirty.  She literally handed me an old cloth that seemed to have had better days.  I thanked her and went back to my room.  Thank God I bring a spare washcloth with me when I travel.  Throughout the week, every time I came by the front desk, if a female was...I am a weekly business traveler and I travel to Spring, TX often.  As a Diamond member, I have always used Hilton brand hotels.  And over the past 5 years and this was honestly my worst experience.  Unfortunately, I decided to try a different HGI to experience a different side of North Houston and explore more of the city.  HUGE MISTAKE!  When I attempted to check in on Sunday evening, the young lady behind the counter never acknowledged me during her personal phone call.  Upon arriving to my room, there were no washcloths in the bathroom.  I assumed I would at least get two.  I went to the front desk and there were four employees gathered around.  I said “Excuse me” several times while trying to get their attention from their laughing and talking about a guy they saw on television.  After about a minute, a lady with a very strong accent asked what I needed.  I informed them that I needed a washcloth.  They all laughed.  One of the young ladies went to the back.  She came back and said there was only one left; all others were dirty.  She literally handed me an old cloth that seemed to have had better days.  I thanked her and went back to my room.  Thank God I bring a spare washcloth with me when I travel.  Throughout the week, every time I came by the front desk, if a female was there, she never seemed to acknowledge anyone and was always on the phone or eating.  I will say that there are four individuals that truly saved my week and my stay.  A huge thank you and hug to: Terry (gentleman at front desk), Edgar (gentleman handling the restaurant at night), Linda and Diane (ladies handling the restaurant at breakfast).  The four of them acknowledged every person with kindness, a smile, and wonderful customer service.  THANK YOU!As for the hotel, it is updated and looks like the many other HGIs I have frequented nationwide.  Unfortunately, they do not have the customer service skills that I have become accustomed to experiencing as a guest of Hilton brand hotels over the years.  Lesson from this experience: Stick to what you know.  What does that mean for me?  When I travel to Spring, TX, I'll stay at the HGI North Houston Spring.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r537946408-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>537946408</t>
+  </si>
+  <si>
+    <t>11/02/2017</t>
+  </si>
+  <si>
+    <t>Need to improve!</t>
+  </si>
+  <si>
+    <t>Few issues but most of the time they provide excellent customer service. My room was missing the smoke alarm, wire were just hanging.  All the wash cloth were missing and mot offered to replaced them..MoreShow less</t>
+  </si>
+  <si>
+    <t>Few issues but most of the time they provide excellent customer service. My room was missing the smoke alarm, wire were just hanging.  All the wash cloth were missing and mot offered to replaced them..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r537752396-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>537752396</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>Crap Hotel</t>
+  </si>
+  <si>
+    <t>Got to the hotel and the hotel had been occupied by recent flood victims.  The front desk clerk was busy with a personal cell call, when she checked us in.  When we got to the room and began changing clothes for the evening, people started coming in to the room.  I went downstairs to find out the clerk failed to check us in and was checking the rest of the world to our room.  No food at the breakfast.  Horrible hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Got to the hotel and the hotel had been occupied by recent flood victims.  The front desk clerk was busy with a personal cell call, when she checked us in.  When we got to the room and began changing clothes for the evening, people started coming in to the room.  I went downstairs to find out the clerk failed to check us in and was checking the rest of the world to our room.  No food at the breakfast.  Horrible hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r536756091-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536756091</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>Awesome bar to visit</t>
+  </si>
+  <si>
+    <t>Let's just say that it was hard to go out down town. Bc the atmosphere was great from the bartender EDGAR ..live the personal customer service and great drinks are hard to come by.. Fun and nice people. Bartender is very  attentive and honest. Will re visit as my come to hotel to stay..I felt very welcome..MoreShow less</t>
+  </si>
+  <si>
+    <t>TimP160WagonPoint, General Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Let's just say that it was hard to go out down town. Bc the atmosphere was great from the bartender EDGAR ..live the personal customer service and great drinks are hard to come by.. Fun and nice people. Bartender is very  attentive and honest. Will re visit as my come to hotel to stay..I felt very welcome..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r536620177-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536620177</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>This location  is the best hotel  to ever stay. They are very helpful, friendly, and they welcome you, and your family in with joy and smile. The kitchen staff is amazing. LINDA AND DENISE IS THE BEST GREETER EVERMoreShow less</t>
+  </si>
+  <si>
+    <t>This location  is the best hotel  to ever stay. They are very helpful, friendly, and they welcome you, and your family in with joy and smile. The kitchen staff is amazing. LINDA AND DENISE IS THE BEST GREETER EVERMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r536277817-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536277817</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>Boutique Hotel... great breakfast and restaurant!</t>
+  </si>
+  <si>
+    <t>VERY comfortable room which is nicely appointed. Here on business for the week, and super comfortable to come back to at end of long hard day.  Usually a charge for breakfast but due to hurricane it is comp. for October, they say. So sweet!  It’s one of the best hotel breakfasts that I have had, and Linda and her staff are super gracious and welcoming!That restaurant sure puts out some good food!  The bed had all washed linen and is fabulously comfortable. The bathroom has an awesome shower. Every aspect of the room is designed for efficiency and comfort. Overall, highly recommend this hotel!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>VERY comfortable room which is nicely appointed. Here on business for the week, and super comfortable to come back to at end of long hard day.  Usually a charge for breakfast but due to hurricane it is comp. for October, they say. So sweet!  It’s one of the best hotel breakfasts that I have had, and Linda and her staff are super gracious and welcoming!That restaurant sure puts out some good food!  The bed had all washed linen and is fabulously comfortable. The bathroom has an awesome shower. Every aspect of the room is designed for efficiency and comfort. Overall, highly recommend this hotel!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r535539948-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>535539948</t>
+  </si>
+  <si>
+    <t>10/23/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great modern hotel. Employees make the difference. </t>
+  </si>
+  <si>
+    <t>Everything about this hotel is your standard newly renovated Hilton offering. Employees like Edgar at the bar make the difference. When you remember an employees name you know their doing something special. It’s great to have customer service as a top priority. At this property, that’s what you get. MoreShow less</t>
+  </si>
+  <si>
+    <t>Everything about this hotel is your standard newly renovated Hilton offering. Employees like Edgar at the bar make the difference. When you remember an employees name you know their doing something special. It’s great to have customer service as a top priority. At this property, that’s what you get. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r535331429-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>535331429</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Iv been here for 3 weeks. Linda on the breakfast bars is wonderful. Edger in the bar is wonderful. Terry and shayland and shivonne were so helpful. All the staff at this hotel are so helpful and could not do enough for anybody. Rooms are clean and tidy. Great hotel with great staff. MoreShow less</t>
+  </si>
+  <si>
+    <t>Iv been here for 3 weeks. Linda on the breakfast bars is wonderful. Edger in the bar is wonderful. Terry and shayland and shivonne were so helpful. All the staff at this hotel are so helpful and could not do enough for anybody. Rooms are clean and tidy. Great hotel with great staff. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r534979350-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>534979350</t>
+  </si>
+  <si>
+    <t>10/21/2017</t>
+  </si>
+  <si>
+    <t>Birthday Doug</t>
+  </si>
+  <si>
+    <t>It was a grea t place to stay and Edgar the bartender was awesome with all t he guest.i would recommend this h otedl grez t place to stay great breakfeast.The room was extremely nice and comfortable beds .MoreShow less</t>
+  </si>
+  <si>
+    <t>It was a grea t place to stay and Edgar the bartender was awesome with all t he guest.i would recommend this h otedl grez t place to stay great breakfeast.The room was extremely nice and comfortable beds .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r533842052-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533842052</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>Customer Service was AMAZING</t>
+  </si>
+  <si>
+    <t>From Terry &amp; Shivonne at the front desk, Linda serving breakfast, and Edgar at the bar at night service was top notch.  Everyone I encountered was super friendly and willing to help. The hotel was always clean and welcoming. 
+I can only give 4 stars as the washer and dryer was broken the entire time I was there, 3 weeks.  Each time I inquired I was provided a different answer as to why they were broken, not replaced, or repaired.  I honestly don't think anyone was purposely lying to me, just each person was telling me their truth.  You know how these things go, we have all lived them.  (1. Both are broken and we can't find one supplier for both.  2. Due to Harvey they are hard to find.  3. We can't get a repair man in at this time to fix them.  4.  They keep throwing the breakers so we need to get an electrician in.)  Honestly, I didn't care why they were broken, just that in over 6 weeks (yes, I had co-workers who had been there the 3 weeks ahead of me with no washer and dryer) they were not able to get this addressed. We were able to use the washer/dryer at the hotel next door.  However, there were only 2 units in that hotel.  Which meant 2 washer/dryers for 2 hotels.  Honesty is the best policy in these situations, the inconvenience of going next...From Terry &amp; Shivonne at the front desk, Linda serving breakfast, and Edgar at the bar at night service was top notch.  Everyone I encountered was super friendly and willing to help. The hotel was always clean and welcoming. I can only give 4 stars as the washer and dryer was broken the entire time I was there, 3 weeks.  Each time I inquired I was provided a different answer as to why they were broken, not replaced, or repaired.  I honestly don't think anyone was purposely lying to me, just each person was telling me their truth.  You know how these things go, we have all lived them.  (1. Both are broken and we can't find one supplier for both.  2. Due to Harvey they are hard to find.  3. We can't get a repair man in at this time to fix them.  4.  They keep throwing the breakers so we need to get an electrician in.)  Honestly, I didn't care why they were broken, just that in over 6 weeks (yes, I had co-workers who had been there the 3 weeks ahead of me with no washer and dryer) they were not able to get this addressed. We were able to use the washer/dryer at the hotel next door.  However, there were only 2 units in that hotel.  Which meant 2 washer/dryers for 2 hotels.  Honesty is the best policy in these situations, the inconvenience of going next door was just that and there should have been some type of compensation for this.MoreShow less</t>
+  </si>
+  <si>
+    <t>CHRISITNE R, Operations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded October 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2017</t>
+  </si>
+  <si>
+    <t>From Terry &amp; Shivonne at the front desk, Linda serving breakfast, and Edgar at the bar at night service was top notch.  Everyone I encountered was super friendly and willing to help. The hotel was always clean and welcoming. 
+I can only give 4 stars as the washer and dryer was broken the entire time I was there, 3 weeks.  Each time I inquired I was provided a different answer as to why they were broken, not replaced, or repaired.  I honestly don't think anyone was purposely lying to me, just each person was telling me their truth.  You know how these things go, we have all lived them.  (1. Both are broken and we can't find one supplier for both.  2. Due to Harvey they are hard to find.  3. We can't get a repair man in at this time to fix them.  4.  They keep throwing the breakers so we need to get an electrician in.)  Honestly, I didn't care why they were broken, just that in over 6 weeks (yes, I had co-workers who had been there the 3 weeks ahead of me with no washer and dryer) they were not able to get this addressed. We were able to use the washer/dryer at the hotel next door.  However, there were only 2 units in that hotel.  Which meant 2 washer/dryers for 2 hotels.  Honesty is the best policy in these situations, the inconvenience of going next...From Terry &amp; Shivonne at the front desk, Linda serving breakfast, and Edgar at the bar at night service was top notch.  Everyone I encountered was super friendly and willing to help. The hotel was always clean and welcoming. I can only give 4 stars as the washer and dryer was broken the entire time I was there, 3 weeks.  Each time I inquired I was provided a different answer as to why they were broken, not replaced, or repaired.  I honestly don't think anyone was purposely lying to me, just each person was telling me their truth.  You know how these things go, we have all lived them.  (1. Both are broken and we can't find one supplier for both.  2. Due to Harvey they are hard to find.  3. We can't get a repair man in at this time to fix them.  4.  They keep throwing the breakers so we need to get an electrician in.)  Honestly, I didn't care why they were broken, just that in over 6 weeks (yes, I had co-workers who had been there the 3 weeks ahead of me with no washer and dryer) they were not able to get this addressed. We were able to use the washer/dryer at the hotel next door.  However, there were only 2 units in that hotel.  Which meant 2 washer/dryers for 2 hotels.  Honesty is the best policy in these situations, the inconvenience of going next door was just that and there should have been some type of compensation for this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r533589953-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533589953</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Comfy stay</t>
+  </si>
+  <si>
+    <t>Rooms nice, clean, spacious, modern but with warmth. Enjoy the pleasure of having a dining facility's within the hotel. Pool and sauna clean and easy access in and our of hotel. Laundry room is a great addition. MoreShow less</t>
+  </si>
+  <si>
+    <t>Rooms nice, clean, spacious, modern but with warmth. Enjoy the pleasure of having a dining facility's within the hotel. Pool and sauna clean and easy access in and our of hotel. Laundry room is a great addition. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r533554441-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533554441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New and great location </t>
+  </si>
+  <si>
+    <t>We were recommended this hotel by fellow coworkers. The staff and rooms were nice. My only complaint was the wifi. I was on the top floor at the end of the hall and I couldn't connect to wifi. They offer free tea and coffee in lobby. I thought we had to pay for breakfast but the waitress told us it was complementary which was a nice surprise. If we have to come back, we would select this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>CHRISITNE R, Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded October 19, 2017</t>
+  </si>
+  <si>
+    <t>We were recommended this hotel by fellow coworkers. The staff and rooms were nice. My only complaint was the wifi. I was on the top floor at the end of the hall and I couldn't connect to wifi. They offer free tea and coffee in lobby. I thought we had to pay for breakfast but the waitress told us it was complementary which was a nice surprise. If we have to come back, we would select this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r531857918-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>531857918</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Hilton Garden Restaurant/Bar!!! </t>
+  </si>
+  <si>
+    <t>The service at this place is top notch!!! They have the most polite and efficient bar tender in the state of Texas, his name is EDGAR!!! He always recommends good food and the kitchen does an awesome job preparing it to perfection. There are a few other restaurants in the area within walking distance but don't waste your time as they consistently offer bad service. I stayed here for three weeks and ate here often. I never once had bad service nor a bad meal. I will return anytime I am in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>TimP160WagonPoint, General Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2017</t>
+  </si>
+  <si>
+    <t>The service at this place is top notch!!! They have the most polite and efficient bar tender in the state of Texas, his name is EDGAR!!! He always recommends good food and the kitchen does an awesome job preparing it to perfection. There are a few other restaurants in the area within walking distance but don't waste your time as they consistently offer bad service. I stayed here for three weeks and ate here often. I never once had bad service nor a bad meal. I will return anytime I am in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r530903541-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>530903541</t>
+  </si>
+  <si>
+    <t>10/07/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel and great staff! </t>
+  </si>
+  <si>
+    <t>From the time I checked, the staff has taken care of me better than family. I have neither want or need of anything. The food is reasonably priced and delicious! The bar has what you need and with the relaxing atmosphere, you'll forget why you're there. The staff is friendly and ready to help take care of you for your entire stay. I will definitely stay here when in Houston. MoreShow less</t>
+  </si>
+  <si>
+    <t>TimP160WagonPoint, General Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded October 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2017</t>
+  </si>
+  <si>
+    <t>From the time I checked, the staff has taken care of me better than family. I have neither want or need of anything. The food is reasonably priced and delicious! The bar has what you need and with the relaxing atmosphere, you'll forget why you're there. The staff is friendly and ready to help take care of you for your entire stay. I will definitely stay here when in Houston. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r530662275-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>530662275</t>
+  </si>
+  <si>
+    <t>10/06/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great service! Friendly staff! </t>
+  </si>
+  <si>
+    <t>Friendly staff in reception , friendly staff behind the bar! Great customer service . Amazing food!! Friendly atmosphere big thanks to Edgar and Mabel behind the bar for the great service, great value drinks and the delicious food ! Highly recommend ⭐️⭐️⭐️⭐️⭐️⭐️MoreShow less</t>
+  </si>
+  <si>
+    <t>Friendly staff in reception , friendly staff behind the bar! Great customer service . Amazing food!! Friendly atmosphere big thanks to Edgar and Mabel behind the bar for the great service, great value drinks and the delicious food ! Highly recommend ⭐️⭐️⭐️⭐️⭐️⭐️More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r530656396-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>530656396</t>
+  </si>
+  <si>
+    <t>Staff and hotel.</t>
+  </si>
+  <si>
+    <t>Excellent hotel, excellent Staff, Edgar and Mabel were excellent hosts after a long day. Food was excellent the reception staff were great also, telephoning cabs and helping out wherever they Could, if I came back to Houston I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent hotel, excellent Staff, Edgar and Mabel were excellent hosts after a long day. Food was excellent the reception staff were great also, telephoning cabs and helping out wherever they Could, if I came back to Houston I would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r530645592-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>530645592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bartender Edgar </t>
+  </si>
+  <si>
+    <t>Awesome service! Very fast and welcoming as soon as u sit down. Works night shift definitely recommend! The hotel it self is great newly remodeled rooms and the front desk are always polite and tend to needs of the guest in a timely manner. MoreShow less</t>
+  </si>
+  <si>
+    <t>Awesome service! Very fast and welcoming as soon as u sit down. Works night shift definitely recommend! The hotel it self is great newly remodeled rooms and the front desk are always polite and tend to needs of the guest in a timely manner. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r529828727-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>529828727</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>Flea Infested</t>
+  </si>
+  <si>
+    <t>Front desk was abandoned, found my key, got to my room and was immediately attacked by fleas. Wasn't able to spend more than a whole minute in the room. Never have I seen a flea infestation that aggressive, or believed it possible.MoreShow less</t>
+  </si>
+  <si>
+    <t>Front desk was abandoned, found my key, got to my room and was immediately attacked by fleas. Wasn't able to spend more than a whole minute in the room. Never have I seen a flea infestation that aggressive, or believed it possible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r527973339-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>527973339</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t>Poor guest service</t>
+  </si>
+  <si>
+    <t>never had housekeeping service my room, dryer in laundry room didnt work, overnight clerk was extremely rude. had to walk to hotel next door to dry my clothes at 10:30 at night. very small portions given at the courtesy breakfast provided by the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>TimP160WagonPoint, General Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded September 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2017</t>
+  </si>
+  <si>
+    <t>never had housekeeping service my room, dryer in laundry room didnt work, overnight clerk was extremely rude. had to walk to hotel next door to dry my clothes at 10:30 at night. very small portions given at the courtesy breakfast provided by the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r527690576-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>527690576</t>
+  </si>
+  <si>
+    <t>09/26/2017</t>
+  </si>
+  <si>
+    <t>SOS</t>
+  </si>
+  <si>
+    <t>The sons of salmon motorcycle club had outstanding time at this hotel we will love to host and another event there...Amanda franks was an outstanding sales manager she was extremely accommodating friendly courteous Would recommend to everybody MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>The sons of salmon motorcycle club had outstanding time at this hotel we will love to host and another event there...Amanda franks was an outstanding sales manager she was extremely accommodating friendly courteous Would recommend to everybody More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r526879688-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>526879688</t>
+  </si>
+  <si>
+    <t>09/23/2017</t>
+  </si>
+  <si>
+    <t>Great place, fantastic staff.</t>
+  </si>
+  <si>
+    <t>On our way home to NY from a family gathering we stayed here to be somewhat close to the airport. The hotel was quiet and comfortable but what was really beautiful was the staff. From the warm and welcoming greetings as we checked in to the outstanding young man tending bar, we were so impressed. Edgar was our barkeep but we watched as he did the job of 3 people with a smile on his face and complete attention to each person he addressed. His grace and manner did not waiver or change as he assisted both families affected by Harvey and folks like us who were just passing through. There was not a moment to breathe but he stayed relaxed and professional and appreciative of each request. From what we could gather he had just started in this position in the last couple weeks and was still in learning mode. Hilton management take note. This was one impressive young man and we all agreed that he "made" our stay. We know where we'll be staying on our next trip to Houston. MoreShow less</t>
+  </si>
+  <si>
+    <t>On our way home to NY from a family gathering we stayed here to be somewhat close to the airport. The hotel was quiet and comfortable but what was really beautiful was the staff. From the warm and welcoming greetings as we checked in to the outstanding young man tending bar, we were so impressed. Edgar was our barkeep but we watched as he did the job of 3 people with a smile on his face and complete attention to each person he addressed. His grace and manner did not waiver or change as he assisted both families affected by Harvey and folks like us who were just passing through. There was not a moment to breathe but he stayed relaxed and professional and appreciative of each request. From what we could gather he had just started in this position in the last couple weeks and was still in learning mode. Hilton management take note. This was one impressive young man and we all agreed that he "made" our stay. We know where we'll be staying on our next trip to Houston. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r522530679-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>522530679</t>
+  </si>
+  <si>
+    <t>09/08/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice, new clean and welcoming </t>
+  </si>
+  <si>
+    <t>Just what I'm coming to expect from this much improved brand.  hGI are clean and well laid out.  Lobby is welcoming with coffee, water, fruit.  Staff always as helpful as can be.   I like the layout.   Room comfortable and clean.  Relaxing stay.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2017</t>
+  </si>
+  <si>
+    <t>Just what I'm coming to expect from this much improved brand.  hGI are clean and well laid out.  Lobby is welcoming with coffee, water, fruit.  Staff always as helpful as can be.   I like the layout.   Room comfortable and clean.  Relaxing stay.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r522486320-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>522486320</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>Over a weeks stay</t>
+  </si>
+  <si>
+    <t>I can truly rate this hotel excellent. I was in need of a place to stay because of Herricane Harvey. Great place, met all of our needs. recommended to neighbors and they all stayed. Funny to be eating breakfast with my neighbors.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2017</t>
+  </si>
+  <si>
+    <t>I can truly rate this hotel excellent. I was in need of a place to stay because of Herricane Harvey. Great place, met all of our needs. recommended to neighbors and they all stayed. Funny to be eating breakfast with my neighbors.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r521614228-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>521614228</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>Staff was like Family</t>
+  </si>
+  <si>
+    <t>During the hurricane the staff made me feel like I was family and went above and beyond to continue to provide the best service possible.  I will stay at this hotel every time I am in this area from now on!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>During the hurricane the staff made me feel like I was family and went above and beyond to continue to provide the best service possible.  I will stay at this hotel every time I am in this area from now on!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r504075041-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504075041</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Stay for back to back trips for 6 months with plans for 2+ years</t>
+  </si>
+  <si>
+    <t>My stay at this hotel is a real joy since I hate staying right at the airport. This facility is just far enough from the airport to keep my travel short but allow for a large diversity in eating establishments.MoreShow less</t>
+  </si>
+  <si>
+    <t>TimP160WagonPoint, General Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2017</t>
+  </si>
+  <si>
+    <t>My stay at this hotel is a real joy since I hate staying right at the airport. This facility is just far enough from the airport to keep my travel short but allow for a large diversity in eating establishments.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r503340027-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503340027</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>Clean room.Great mattressBeautiful and simple decorHuge showerDelicious cookies at front desk.Definitely will stay again and again.My family was pleased with the accommodations.Didnt try the breakfast...rhe mattress wouldn't let us get up. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Clean room.Great mattressBeautiful and simple decorHuge showerDelicious cookies at front desk.Definitely will stay again and again.My family was pleased with the accommodations.Didnt try the breakfast...rhe mattress wouldn't let us get up. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r502333653-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>502333653</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>My expectations were no different than normal but my experience was outstanding.  I have never been so cordially greeted.  The room was so clean it looked like it had never been used.  I have only stayed in one place with a similar experience and it was a resort costing four times as much.  This is the only place I will stay if I am in the area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2017</t>
+  </si>
+  <si>
+    <t>My expectations were no different than normal but my experience was outstanding.  I have never been so cordially greeted.  The room was so clean it looked like it had never been used.  I have only stayed in one place with a similar experience and it was a resort costing four times as much.  This is the only place I will stay if I am in the area again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r494329791-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>494329791</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Comfortable, Clean and Proactive Staff</t>
+  </si>
+  <si>
+    <t>I got to spend the better half the week at the Hilton Garden Inn Houston Cypress Station. The hotel was clean, has a restaurant and bar. Their Staff (especially Christine, Shannon and Juan) made every effort to make sure I was comfortable, and were proactive in pointing out the amenities of the hotel,MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2017</t>
+  </si>
+  <si>
+    <t>I got to spend the better half the week at the Hilton Garden Inn Houston Cypress Station. The hotel was clean, has a restaurant and bar. Their Staff (especially Christine, Shannon and Juan) made every effort to make sure I was comfortable, and were proactive in pointing out the amenities of the hotel,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r494097823-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>494097823</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>Wonderful staff!! Very friendly and helpful. Clean rooms, bathrooms and pool area. AC worked great beds were very comfortable. We would definitely stay here again. Location was good with everything you need just a short distance away.MoreShow less</t>
+  </si>
+  <si>
+    <t>TimP160WagonPoint, General Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Wonderful staff!! Very friendly and helpful. Clean rooms, bathrooms and pool area. AC worked great beds were very comfortable. We would definitely stay here again. Location was good with everything you need just a short distance away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r494097098-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>494097098</t>
+  </si>
+  <si>
+    <t>Love love love this hotel!!!</t>
+  </si>
+  <si>
+    <t>Seriously one of the most spectacular hotels I've stayed in! Beautiful rooms, very modern, friendly, courteous staff! Bartender Juan is awesome in the hotel restaurant bar! Just a great experience! The hotel was clean, the staff is phenomenal and they've done a great job at hospitality! The room had gorgeous porcelain tile. The bathroom was glass doors and quartz countertops. Nice fluffy towels and every amenity. I would totally recommend this hotel to anyone staying in Houston. Close by restaurants and shopping too.MoreShow less</t>
+  </si>
+  <si>
+    <t>Seriously one of the most spectacular hotels I've stayed in! Beautiful rooms, very modern, friendly, courteous staff! Bartender Juan is awesome in the hotel restaurant bar! Just a great experience! The hotel was clean, the staff is phenomenal and they've done a great job at hospitality! The room had gorgeous porcelain tile. The bathroom was glass doors and quartz countertops. Nice fluffy towels and every amenity. I would totally recommend this hotel to anyone staying in Houston. Close by restaurants and shopping too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r491812863-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491812863</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t>The Staff Makes This Hotel!</t>
+  </si>
+  <si>
+    <t>This was our primary hotel for  family and friends for our Wedding night on May 20th. The hotel is updated and the beds were comfortable. They also had a great breakfast selection and excellent coffee. Definitely not the water-down weak stuff in many other hotels. The best part of our stay was the staff. They were amazing! All of our guests were welcomed with warm smiles and southern hospitality. Everyone was checked in smoothly and special requests were easily accommodated. They had the bartender stay late so we could have an after-party and he did an amazing job. He was happy, conversed with all the guests, and did an amazing job serving everyone in a timely manner. Overall, I would definitely recommend this hotel to anyone needing to stay in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>TimP160WagonPoint, General Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded June 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2017</t>
+  </si>
+  <si>
+    <t>This was our primary hotel for  family and friends for our Wedding night on May 20th. The hotel is updated and the beds were comfortable. They also had a great breakfast selection and excellent coffee. Definitely not the water-down weak stuff in many other hotels. The best part of our stay was the staff. They were amazing! All of our guests were welcomed with warm smiles and southern hospitality. Everyone was checked in smoothly and special requests were easily accommodated. They had the bartender stay late so we could have an after-party and he did an amazing job. He was happy, conversed with all the guests, and did an amazing job serving everyone in a timely manner. Overall, I would definitely recommend this hotel to anyone needing to stay in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r491555017-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491555017</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>One of the nicest HGI's ever</t>
+  </si>
+  <si>
+    <t>Travel extensively for business and this was one of the nicest HGI'S I ever stayed at. The room was well appointed and the service of the staff was excellent. If you're in the N. Houston area, I'd highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2017</t>
+  </si>
+  <si>
+    <t>Travel extensively for business and this was one of the nicest HGI'S I ever stayed at. The room was well appointed and the service of the staff was excellent. If you're in the N. Houston area, I'd highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r489271477-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489271477</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>Excellent Staff</t>
+  </si>
+  <si>
+    <t>The staff was the friendliest and most helpful I have ever experienced.   They made breakfast and team dinner a breeze!   We would definitely stay there again.  Hotel was clean and close to many things.  Thanks Hilton!MoreShow less</t>
+  </si>
+  <si>
+    <t>TimP160WagonPoint, General Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded June 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2017</t>
+  </si>
+  <si>
+    <t>The staff was the friendliest and most helpful I have ever experienced.   They made breakfast and team dinner a breeze!   We would definitely stay there again.  Hotel was clean and close to many things.  Thanks Hilton!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r485516897-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>485516897</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Comfort and Quality with Great Customer Service</t>
+  </si>
+  <si>
+    <t>I highly recomed this location to anybody that needs to travel on business or have a need to book a large group of people to stay.  Everybody from the Bar staff to ( I forget their names, but both of them) to Shannon (I think this was here name) who was our waitress every morning for breakfast were all top notch examples of what customer service should be.   A lot of hotels could take a lesson on customer service should be from this location.   Thank you for a great stay and I will be back for future stays.MoreShow less</t>
+  </si>
+  <si>
+    <t>TimP160WagonPoint, General Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>I highly recomed this location to anybody that needs to travel on business or have a need to book a large group of people to stay.  Everybody from the Bar staff to ( I forget their names, but both of them) to Shannon (I think this was here name) who was our waitress every morning for breakfast were all top notch examples of what customer service should be.   A lot of hotels could take a lesson on customer service should be from this location.   Thank you for a great stay and I will be back for future stays.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r483533184-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>483533184</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>Fantastic Hotel and Great Customer Service!!</t>
+  </si>
+  <si>
+    <t>Stayed here a few times for work and each time was great.  Dajana checked me in the 1st 2 times and she was very professional and courteous!  Christine is one of the most friendliest and hard working people I've seen at hotels.  (I travel 200+days a year)  She's friendly outgoing and always looking to find a way to better your stay.  Juan the bar tender was fantastic too.  Even when it was super busy he always made time to get around to me and ask if there was anything else I needed.  Went out of his way to be friendly and conversational.  He also recommended some great food which was prepared by Maria.  Maria goes out of her way to make the most amazing dishes!  She truly takes pride in her work and does more than just prepare food.  She makes sure it's cooked perfectly the way you want it.  Every day I have stayed at this hotel I left feeling rested and well taken care of.  Super clean and great staff!!  Highly recommend! :)MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>TimP160WagonPoint, General Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded May 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here a few times for work and each time was great.  Dajana checked me in the 1st 2 times and she was very professional and courteous!  Christine is one of the most friendliest and hard working people I've seen at hotels.  (I travel 200+days a year)  She's friendly outgoing and always looking to find a way to better your stay.  Juan the bar tender was fantastic too.  Even when it was super busy he always made time to get around to me and ask if there was anything else I needed.  Went out of his way to be friendly and conversational.  He also recommended some great food which was prepared by Maria.  Maria goes out of her way to make the most amazing dishes!  She truly takes pride in her work and does more than just prepare food.  She makes sure it's cooked perfectly the way you want it.  Every day I have stayed at this hotel I left feeling rested and well taken care of.  Super clean and great staff!!  Highly recommend! :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r483347035-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>483347035</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t>Friendly &amp; Helpful Staff</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay, although the purpose for my trip was work related.  Keurig in room was a brilliant idea and good shows on HBO were always on. Front Desk lady (Diane) was friendly and helpful. She went above and beyond searching the internet for places nearby that would be showing the boxing match that particular evening.MoreShow less</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay, although the purpose for my trip was work related.  Keurig in room was a brilliant idea and good shows on HBO were always on. Front Desk lady (Diane) was friendly and helpful. She went above and beyond searching the internet for places nearby that would be showing the boxing match that particular evening.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r479345316-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>479345316</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>This hotel is very clean, staff very courteous. Rooms are very clean. Breakfast area was very ample. Hotel staff very friendly and helpful. Lobby and room was very comfortable. This hotel is very close to Bush airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>TimP160WagonPoint, General Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded April 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is very clean, staff very courteous. Rooms are very clean. Breakfast area was very ample. Hotel staff very friendly and helpful. Lobby and room was very comfortable. This hotel is very close to Bush airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r478410843-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>478410843</t>
+  </si>
+  <si>
+    <t>04/23/2017</t>
+  </si>
+  <si>
+    <t>Excellent!!!</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights for a group team meeting in Houston.  The staff was outstanding.  Front Desk lady (can't recall name) was a very positive experience.  Ate breakfast there both mornings and the food was delicious while the wait staff (Shannon &amp; Saul) provided top notch service.  This HGI is new...only 9 months old I believe.  The new room layout and décor is very impressive.  Hope all HGI's are going to this design.  So, give it a try...you will be glad you did!MoreShow less</t>
+  </si>
+  <si>
+    <t>TimP160WagonPoint, General Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded April 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights for a group team meeting in Houston.  The staff was outstanding.  Front Desk lady (can't recall name) was a very positive experience.  Ate breakfast there both mornings and the food was delicious while the wait staff (Shannon &amp; Saul) provided top notch service.  This HGI is new...only 9 months old I believe.  The new room layout and décor is very impressive.  Hope all HGI's are going to this design.  So, give it a try...you will be glad you did!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r475719797-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>475719797</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t>Great Experince</t>
+  </si>
+  <si>
+    <t>Everyone was very nice and helpful. The rooms were great size with a nice size bed. The bathroom had plenty of towels. The room even had a personal little kitchen. The hotel was nice and clean. I would recommend The Hilton to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>Everyone was very nice and helpful. The rooms were great size with a nice size bed. The bathroom had plenty of towels. The room even had a personal little kitchen. The hotel was nice and clean. I would recommend The Hilton to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r470732715-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470732715</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>College dorm makeover. Disgrace.</t>
+  </si>
+  <si>
+    <t>When we arrived around 9pm there was no one at the check-in desk.  She was sitting over in the bar area with two men.. when we walked in I thought seriously we were in the wrong place.  If this is the look of the new Hilton Garden Inn I have no interest in ever staying again.. it is very bland and a stripped down version of all the other Hilton Garden Inn's that we have stayed at through the  years...not the inviting warm environment that we are used too.. I have seen emergency rooms that look more inviting . Then we got to our room and it was worse.  It  looks like a college dorm room from years ago.. built into the wall desk, wire shelving,  no closet doors, and the floors were filthy in the closet corners. Sliding bathroom door that had glass in it so if you turn on the light it shines out into the entire room...  Ridiculous.  The bedside table lamps had a chain hanging from the ceiling. With cheap bedside tables with no drawers.  They had a tray table beside the chair that looked like a hospital bed tray.  My husband used the workout room and some of the equipment wouldn't work, along with  no cups for water.  I have included pictures... we will not be back... and if this is the new look of  Hilton Garden Inn we will be booking elsewhere.. if Hilton...When we arrived around 9pm there was no one at the check-in desk.  She was sitting over in the bar area with two men.. when we walked in I thought seriously we were in the wrong place.  If this is the look of the new Hilton Garden Inn I have no interest in ever staying again.. it is very bland and a stripped down version of all the other Hilton Garden Inn's that we have stayed at through the  years...not the inviting warm environment that we are used too.. I have seen emergency rooms that look more inviting . Then we got to our room and it was worse.  It  looks like a college dorm room from years ago.. built into the wall desk, wire shelving,  no closet doors, and the floors were filthy in the closet corners. Sliding bathroom door that had glass in it so if you turn on the light it shines out into the entire room...  Ridiculous.  The bedside table lamps had a chain hanging from the ceiling. With cheap bedside tables with no drawers.  They had a tray table beside the chair that looked like a hospital bed tray.  My husband used the workout room and some of the equipment wouldn't work, along with  no cups for water.  I have included pictures... we will not be back... and if this is the new look of  Hilton Garden Inn we will be booking elsewhere.. if Hilton thinks this is an improvement, they need to do more research.  We always eat breakfast at the Hilton Garden Inn but we just left the next morning and went to a restaurant. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>TimP160WagonPoint, General Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded April 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2017</t>
+  </si>
+  <si>
+    <t>When we arrived around 9pm there was no one at the check-in desk.  She was sitting over in the bar area with two men.. when we walked in I thought seriously we were in the wrong place.  If this is the look of the new Hilton Garden Inn I have no interest in ever staying again.. it is very bland and a stripped down version of all the other Hilton Garden Inn's that we have stayed at through the  years...not the inviting warm environment that we are used too.. I have seen emergency rooms that look more inviting . Then we got to our room and it was worse.  It  looks like a college dorm room from years ago.. built into the wall desk, wire shelving,  no closet doors, and the floors were filthy in the closet corners. Sliding bathroom door that had glass in it so if you turn on the light it shines out into the entire room...  Ridiculous.  The bedside table lamps had a chain hanging from the ceiling. With cheap bedside tables with no drawers.  They had a tray table beside the chair that looked like a hospital bed tray.  My husband used the workout room and some of the equipment wouldn't work, along with  no cups for water.  I have included pictures... we will not be back... and if this is the new look of  Hilton Garden Inn we will be booking elsewhere.. if Hilton...When we arrived around 9pm there was no one at the check-in desk.  She was sitting over in the bar area with two men.. when we walked in I thought seriously we were in the wrong place.  If this is the look of the new Hilton Garden Inn I have no interest in ever staying again.. it is very bland and a stripped down version of all the other Hilton Garden Inn's that we have stayed at through the  years...not the inviting warm environment that we are used too.. I have seen emergency rooms that look more inviting . Then we got to our room and it was worse.  It  looks like a college dorm room from years ago.. built into the wall desk, wire shelving,  no closet doors, and the floors were filthy in the closet corners. Sliding bathroom door that had glass in it so if you turn on the light it shines out into the entire room...  Ridiculous.  The bedside table lamps had a chain hanging from the ceiling. With cheap bedside tables with no drawers.  They had a tray table beside the chair that looked like a hospital bed tray.  My husband used the workout room and some of the equipment wouldn't work, along with  no cups for water.  I have included pictures... we will not be back... and if this is the new look of  Hilton Garden Inn we will be booking elsewhere.. if Hilton thinks this is an improvement, they need to do more research.  We always eat breakfast at the Hilton Garden Inn but we just left the next morning and went to a restaurant. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r469021525-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469021525</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel with great staff!</t>
+  </si>
+  <si>
+    <t>This hotel is beautiful and the hotel staff are very friendly.  I would definitely stay here again.  From my room I was able to see my vehicle and the sunshine.  I love the natural light that comes into the room all throughout the day.  The breakfast was delicious and very well prepared.  I would recommend everyone stay at this hotel if you travel to the Spring/Houston area of Texas. It's right off the highway and has access to several areas to shop and dine.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is beautiful and the hotel staff are very friendly.  I would definitely stay here again.  From my room I was able to see my vehicle and the sunshine.  I love the natural light that comes into the room all throughout the day.  The breakfast was delicious and very well prepared.  I would recommend everyone stay at this hotel if you travel to the Spring/Houston area of Texas. It's right off the highway and has access to several areas to shop and dine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r467866643-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467866643</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>My family stopped here for one night after picking up my daughter from late flight into IAH. It happened to be my birthday and we ate dinner at hotel restaurant where staff were great Also had a. Great breakfast. Hotel is new, staff were friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family stopped here for one night after picking up my daughter from late flight into IAH. It happened to be my birthday and we ate dinner at hotel restaurant where staff were great Also had a. Great breakfast. Hotel is new, staff were friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r463751377-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463751377</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>Worst Hotel Stay...Theft...and Lack of Safety</t>
+  </si>
+  <si>
+    <t>I have been a business traveler for over 20 years and by far this is the ABSOLUTE WORST experience I have had! The front desk person gave a complete stranger a key to my room without asking for ID and that person came into my room while I was asleep and stole several items including my wallet and headphones. Had I not woken up from the noise, they would have also stolen my laptop. When I called the front desk immediately to state that an intruder was given access to my room, they said they would send security up right away, which didn't happen...I proceeded to call 3 or 4 more times, until someone finally came up. I also asked them to contact the police, and they did not, so I had to call them myself. In the police report, the front desk person admitted giving a stranger a key to my room without any kind of ID, because they thought it was ok. I demanded several times to speak to the GM, but the response I received initially was that the GM would not be in until 11AM the next day, which was ridiculous, considering I am a Platinum member, and a major theft occurred at their hotel. Needless to say I had to try and fly back home without any ID, cancel all my credit cards and lost a lot of sentimental and valuable items. The issue is...I have been a business traveler for over 20 years and by far this is the ABSOLUTE WORST experience I have had! The front desk person gave a complete stranger a key to my room without asking for ID and that person came into my room while I was asleep and stole several items including my wallet and headphones. Had I not woken up from the noise, they would have also stolen my laptop. When I called the front desk immediately to state that an intruder was given access to my room, they said they would send security up right away, which didn't happen...I proceeded to call 3 or 4 more times, until someone finally came up. I also asked them to contact the police, and they did not, so I had to call them myself. In the police report, the front desk person admitted giving a stranger a key to my room without any kind of ID, because they thought it was ok. I demanded several times to speak to the GM, but the response I received initially was that the GM would not be in until 11AM the next day, which was ridiculous, considering I am a Platinum member, and a major theft occurred at their hotel. Needless to say I had to try and fly back home without any ID, cancel all my credit cards and lost a lot of sentimental and valuable items. The issue is still ongoing and I have tried to contact the GM and others with very little success to resolve this issue. Apparently video footage is available of the person who was given access to my room, but when I contact the hotel, all I get are responses to delay any action. I have been a loyal Hilton property customer for over 20 years and this type of incompetence, lack of empathy and poor response have made me write this review. Its sad that the lack of professionalism and customer service is so evident in such a large hotel chain.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>I have been a business traveler for over 20 years and by far this is the ABSOLUTE WORST experience I have had! The front desk person gave a complete stranger a key to my room without asking for ID and that person came into my room while I was asleep and stole several items including my wallet and headphones. Had I not woken up from the noise, they would have also stolen my laptop. When I called the front desk immediately to state that an intruder was given access to my room, they said they would send security up right away, which didn't happen...I proceeded to call 3 or 4 more times, until someone finally came up. I also asked them to contact the police, and they did not, so I had to call them myself. In the police report, the front desk person admitted giving a stranger a key to my room without any kind of ID, because they thought it was ok. I demanded several times to speak to the GM, but the response I received initially was that the GM would not be in until 11AM the next day, which was ridiculous, considering I am a Platinum member, and a major theft occurred at their hotel. Needless to say I had to try and fly back home without any ID, cancel all my credit cards and lost a lot of sentimental and valuable items. The issue is...I have been a business traveler for over 20 years and by far this is the ABSOLUTE WORST experience I have had! The front desk person gave a complete stranger a key to my room without asking for ID and that person came into my room while I was asleep and stole several items including my wallet and headphones. Had I not woken up from the noise, they would have also stolen my laptop. When I called the front desk immediately to state that an intruder was given access to my room, they said they would send security up right away, which didn't happen...I proceeded to call 3 or 4 more times, until someone finally came up. I also asked them to contact the police, and they did not, so I had to call them myself. In the police report, the front desk person admitted giving a stranger a key to my room without any kind of ID, because they thought it was ok. I demanded several times to speak to the GM, but the response I received initially was that the GM would not be in until 11AM the next day, which was ridiculous, considering I am a Platinum member, and a major theft occurred at their hotel. Needless to say I had to try and fly back home without any ID, cancel all my credit cards and lost a lot of sentimental and valuable items. The issue is still ongoing and I have tried to contact the GM and others with very little success to resolve this issue. Apparently video footage is available of the person who was given access to my room, but when I contact the hotel, all I get are responses to delay any action. I have been a loyal Hilton property customer for over 20 years and this type of incompetence, lack of empathy and poor response have made me write this review. Its sad that the lack of professionalism and customer service is so evident in such a large hotel chain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r462615507-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462615507</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>Outside of breakfast a great stay</t>
+  </si>
+  <si>
+    <t>The rooms and lobby are beautiful.  The entire property is spotless.  The only problems were the heater in the room kicked on so loud it woke me from a dead sleep and then had a persistent clicking noise which also kept me awake.    The breakfast was poor.  I had to send my food back three times, coffee was cold and fruit looked like it had sat out for days.  An unfortunate representation for an otherwise great property.MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms and lobby are beautiful.  The entire property is spotless.  The only problems were the heater in the room kicked on so loud it woke me from a dead sleep and then had a persistent clicking noise which also kept me awake.    The breakfast was poor.  I had to send my food back three times, coffee was cold and fruit looked like it had sat out for days.  An unfortunate representation for an otherwise great property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r462154576-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462154576</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>I cannot speak highly enough about my stay at Hilton Garden Inn.  I had a very pleasant, peaceful, restful experience.  My conference experience was also very satisfactory.  It seemed that all requirements were met and all in attendance, as far as I could tell, were pleased.  Looking forward to staying again sometime in the near future.  I am perfectly willing to recommend Hilton Garden to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aileen G, Front Office Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded February 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2017</t>
+  </si>
+  <si>
+    <t>I cannot speak highly enough about my stay at Hilton Garden Inn.  I had a very pleasant, peaceful, restful experience.  My conference experience was also very satisfactory.  It seemed that all requirements were met and all in attendance, as far as I could tell, were pleased.  Looking forward to staying again sometime in the near future.  I am perfectly willing to recommend Hilton Garden to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r461539181-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461539181</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>The Hilton Gardens Staff was extremely helpful and made our stay extremely comfortable with a fair value.</t>
+  </si>
+  <si>
+    <t>The front desk staff, the restaurant and bar staff were very friendly they were always smiling and extremely helpful. The rooms were very clean as was the entire facilities. While the facility is new the staff takes a lot of pride in their service.MoreShow less</t>
+  </si>
+  <si>
+    <t>Aileen G, Front Office Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded February 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2017</t>
+  </si>
+  <si>
+    <t>The front desk staff, the restaurant and bar staff were very friendly they were always smiling and extremely helpful. The rooms were very clean as was the entire facilities. While the facility is new the staff takes a lot of pride in their service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r460638799-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460638799</t>
+  </si>
+  <si>
+    <t>02/17/2017</t>
+  </si>
+  <si>
+    <t>What a GREAT place! Stay here for real!!!!</t>
+  </si>
+  <si>
+    <t>What a great hotel. They are about 6 months old and a new concept in design for the rooms. beautiful tile floors with carpet around the beds, fantastic bathrooms and decor. This will be our hotel for all future stays in this area. The customer service was fantastic, hope you are as lucky as we were to have Maggie at the front desk. She made our check in and stay worth it all.MoreShow less</t>
+  </si>
+  <si>
+    <t>What a great hotel. They are about 6 months old and a new concept in design for the rooms. beautiful tile floors with carpet around the beds, fantastic bathrooms and decor. This will be our hotel for all future stays in this area. The customer service was fantastic, hope you are as lucky as we were to have Maggie at the front desk. She made our check in and stay worth it all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r460282579-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460282579</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Beautiful Property</t>
+  </si>
+  <si>
+    <t>Beautiful property and an amazing staff.  Front desk is extremely helpful and has such an attention to detail, very helpful for those traveling alone in a new area.  I was so impressed with the proactive approach  of the staff to help with even the smallest details.  I will choose this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Beautiful property and an amazing staff.  Front desk is extremely helpful and has such an attention to detail, very helpful for those traveling alone in a new area.  I was so impressed with the proactive approach  of the staff to help with even the smallest details.  I will choose this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r458614681-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458614681</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>New Hilton Hotel</t>
+  </si>
+  <si>
+    <t>This new Hilton hotel is a great and beautiful place to stay.  The modern and contemporary decor in the main lobby is just beautiful and stunning.  Our group was there for the superbowl weekend. The staff made our staff very pleasurable.MoreShow less</t>
+  </si>
+  <si>
+    <t>This new Hilton hotel is a great and beautiful place to stay.  The modern and contemporary decor in the main lobby is just beautiful and stunning.  Our group was there for the superbowl weekend. The staff made our staff very pleasurable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r457728457-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>457728457</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>Shangrila</t>
+  </si>
+  <si>
+    <t>This location is the BEST hotel that I have ever had the pleasure of staying in.  From the moment that I walked through the door, Shawna (and the other young lady, her name escapes me) took great care of me.  From directions, to local food suggestions, to checking on me after I was hospitalized (don't ask!!!) these two and the bar tender were excellent.  The room was quiet, CLEAN, and the bathroom was immaculate.  If I could rate this hotel with 16 stars I would!  I recommend this place to all travelers who may choose to come to the Houston Area!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>This location is the BEST hotel that I have ever had the pleasure of staying in.  From the moment that I walked through the door, Shawna (and the other young lady, her name escapes me) took great care of me.  From directions, to local food suggestions, to checking on me after I was hospitalized (don't ask!!!) these two and the bar tender were excellent.  The room was quiet, CLEAN, and the bathroom was immaculate.  If I could rate this hotel with 16 stars I would!  I recommend this place to all travelers who may choose to come to the Houston Area!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r456836028-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>456836028</t>
+  </si>
+  <si>
+    <t>02/02/2017</t>
+  </si>
+  <si>
+    <t>Business near IAH Houston</t>
+  </si>
+  <si>
+    <t>I booked a room at the Hilton Garden Inn because of the proximity to the location where i was attending a conference. The hotel is very clean and their service exceptional. Will stay again next time i am in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>I booked a room at the Hilton Garden Inn because of the proximity to the location where i was attending a conference. The hotel is very clean and their service exceptional. Will stay again next time i am in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r441824765-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>441824765</t>
+  </si>
+  <si>
+    <t>12/03/2016</t>
+  </si>
+  <si>
+    <t>Quick Visit</t>
+  </si>
+  <si>
+    <t>We stayed here after an overnight flight from Europe. We were greeted by a friendly staff. The front desk even gave us milk for our 2 year old. Rooms were excellent and very clean. Breakfast was nice as well!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>We stayed here after an overnight flight from Europe. We were greeted by a friendly staff. The front desk even gave us milk for our 2 year old. Rooms were excellent and very clean. Breakfast was nice as well!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r439856842-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439856842</t>
+  </si>
+  <si>
+    <t>11/24/2016</t>
+  </si>
+  <si>
+    <t>A new place and needs help!</t>
+  </si>
+  <si>
+    <t>Several safety issues that were reported but not cared for. Recently constructed and not fully checked before acceptance.  Clearly not detailed by management. No bar.  No restaurant (except bfast).   Was given two free ice cream cups when we were looking for a glass of wine and dessert!   Management is not present in the building.MoreShow less</t>
+  </si>
+  <si>
+    <t>Angel G, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Several safety issues that were reported but not cared for. Recently constructed and not fully checked before acceptance.  Clearly not detailed by management. No bar.  No restaurant (except bfast).   Was given two free ice cream cups when we were looking for a glass of wine and dessert!   Management is not present in the building.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r438129054-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438129054</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>Sorry, I gave them a chance.</t>
+  </si>
+  <si>
+    <t>My travel agent begged me to try this hotel, since it was new and a great price. First, it was hard to find, tucked behind a strip mall. The personnel are really nice, but things don't get done quickly. The woman who took my order in her blue hoodie on Wednesday morning, took my dinner order Wednesday night and was still there Thursday morning. I ordered my dinner at the bar, since the Room Service number wasn't answered. My chicken sandwich was great, but the guy's pork next to me was spoiled. Another guy was talking about his truck being broken in to. While the room was spacious, none of the lamps matched. If the hotel has been open for two months, why is there still construction writing in my shower? While the shower was great and the bed comfortable. I won't be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Angel G, Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded November 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2016</t>
+  </si>
+  <si>
+    <t>My travel agent begged me to try this hotel, since it was new and a great price. First, it was hard to find, tucked behind a strip mall. The personnel are really nice, but things don't get done quickly. The woman who took my order in her blue hoodie on Wednesday morning, took my dinner order Wednesday night and was still there Thursday morning. I ordered my dinner at the bar, since the Room Service number wasn't answered. My chicken sandwich was great, but the guy's pork next to me was spoiled. Another guy was talking about his truck being broken in to. While the room was spacious, none of the lamps matched. If the hotel has been open for two months, why is there still construction writing in my shower? While the shower was great and the bed comfortable. I won't be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r433820234-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>433820234</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Not quite ready for prime time</t>
+  </si>
+  <si>
+    <t>The glitches are not yet out of this property: peeling wallpaper, missing floor tiles, but the non-working lights in room make it too inconvenient and requiring room change.  But the worst is the restaurant.  Service is terrible, even when only 2 diners in the room.  The front staff will tell guests that the restaurant is open, and the wait staff will even take the order, but it doesn't get made because the restaurant is closed.  They need to organize and fix before ready for guests.  Not what is needed on a business trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>Angel G, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded November 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2016</t>
+  </si>
+  <si>
+    <t>The glitches are not yet out of this property: peeling wallpaper, missing floor tiles, but the non-working lights in room make it too inconvenient and requiring room change.  But the worst is the restaurant.  Service is terrible, even when only 2 diners in the room.  The front staff will tell guests that the restaurant is open, and the wait staff will even take the order, but it doesn't get made because the restaurant is closed.  They need to organize and fix before ready for guests.  Not what is needed on a business trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r432540814-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>432540814</t>
+  </si>
+  <si>
+    <t>10/28/2016</t>
+  </si>
+  <si>
+    <t>Great new hotel</t>
+  </si>
+  <si>
+    <t>We used this hotel for a group meeting.  What a great solution for our group.  The hotel is brand new, modern rooms, comfortable surroundings, and a great little conference room just off the lobby.  The front desk did a wonderful job of taking care of all of our needs and helping us to have a great couple of days of meetings.  The breakfast staff and evening staff seem to be trying to get their stride, but they were friendly enough.We will definitely be back for future meetings and take advantage of this local hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Angel G, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>We used this hotel for a group meeting.  What a great solution for our group.  The hotel is brand new, modern rooms, comfortable surroundings, and a great little conference room just off the lobby.  The front desk did a wonderful job of taking care of all of our needs and helping us to have a great couple of days of meetings.  The breakfast staff and evening staff seem to be trying to get their stride, but they were friendly enough.We will definitely be back for future meetings and take advantage of this local hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r432573596-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>432573596</t>
+  </si>
+  <si>
+    <t>Short Business trip to Houston</t>
+  </si>
+  <si>
+    <t>Found this tremendous deal very close to where I needed to be - always use caution in Houston b/c it's so big - hotel clean and staff very professional. Pool available, nice lobby, great coffee, nice open bar.MoreShow less</t>
+  </si>
+  <si>
+    <t>Found this tremendous deal very close to where I needed to be - always use caution in Houston b/c it's so big - hotel clean and staff very professional. Pool available, nice lobby, great coffee, nice open bar.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r430881845-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>430881845</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>Great hotel bad service</t>
+  </si>
+  <si>
+    <t>The hotel is new and it was built with all you need and modern. Clean and comfortable it could be a great hotel if the service was decent. From 1 to 10 I rate the service I received 3. Breakfast: the girl is very busy chatting with the chef after 10 minutes waiting I had to go to her to make her notice I was waiting for service. Bar: the bar is there, fully stuffed but for the two days I was there they were serving water or soda only because they didn't have a bar tender. Front desk: I wish one of the employee would have said one time good morning. Rudeness and bed service make this beautiful hotel not a nice place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Angel G, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded October 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is new and it was built with all you need and modern. Clean and comfortable it could be a great hotel if the service was decent. From 1 to 10 I rate the service I received 3. Breakfast: the girl is very busy chatting with the chef after 10 minutes waiting I had to go to her to make her notice I was waiting for service. Bar: the bar is there, fully stuffed but for the two days I was there they were serving water or soda only because they didn't have a bar tender. Front desk: I wish one of the employee would have said one time good morning. Rudeness and bed service make this beautiful hotel not a nice place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r425765816-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425765816</t>
+  </si>
+  <si>
+    <t>10/07/2016</t>
+  </si>
+  <si>
+    <t>Beware of night auditor</t>
+  </si>
+  <si>
+    <t>Night auditor must have had a bad night because the level of service I received was no existent! Need more smiling faces at the front desk! Definitely not up to Hilton garden inn standards for a Hilton property!MoreShow less</t>
+  </si>
+  <si>
+    <t>Angel G, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Night auditor must have had a bad night because the level of service I received was no existent! Need more smiling faces at the front desk! Definitely not up to Hilton garden inn standards for a Hilton property!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r425119381-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425119381</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>Nice, modern hotel</t>
+  </si>
+  <si>
+    <t>The hotel is very nice and modern. The manager and staff very solicitous and friendly. Lauren at the front desk is especially gracious. I was there for a writer's conference and she was so kind and sweet to all of us. MoreShow less</t>
+  </si>
+  <si>
+    <t>TimP160WagonPoint, General Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded October 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is very nice and modern. The manager and staff very solicitous and friendly. Lauren at the front desk is especially gracious. I was there for a writer's conference and she was so kind and sweet to all of us. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r423000483-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>423000483</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seriously, INCREDIBLE!! </t>
+  </si>
+  <si>
+    <t>First of all, the hotel is SO nice. From the looks, to the cleanliness, to the comfort, to the smell, everything is immaculate! Not to mention, the staff is so friendly and helpful. Lauren greeted my husband and me with a smile and made us feel so welcome! She was so helpful and answered all of our questions and was very knowledgeable of the Hilton Honors system. I only stay in Hilton properties and this was absolutely one of the best properties I've stayed in. I will be returning and recommending to anyone who is in the area. Thanks, Lauren and Hilton Garden Inn! See you again soon! MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Angel G, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded September 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2016</t>
+  </si>
+  <si>
+    <t>First of all, the hotel is SO nice. From the looks, to the cleanliness, to the comfort, to the smell, everything is immaculate! Not to mention, the staff is so friendly and helpful. Lauren greeted my husband and me with a smile and made us feel so welcome! She was so helpful and answered all of our questions and was very knowledgeable of the Hilton Honors system. I only stay in Hilton properties and this was absolutely one of the best properties I've stayed in. I will be returning and recommending to anyone who is in the area. Thanks, Lauren and Hilton Garden Inn! See you again soon! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r421268922-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>421268922</t>
+  </si>
+  <si>
+    <t>09/22/2016</t>
+  </si>
+  <si>
+    <t>Feeling like Royalty</t>
+  </si>
+  <si>
+    <t>The room is perfect for short or long stays, spacious for all your needs. Big TV with long counter top for work or snacks, very comfortable bed. The staff was very friendly, respectful and delightful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Angel G, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2016</t>
+  </si>
+  <si>
+    <t>The room is perfect for short or long stays, spacious for all your needs. Big TV with long counter top for work or snacks, very comfortable bed. The staff was very friendly, respectful and delightful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r420805055-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>420805055</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>Great option</t>
+  </si>
+  <si>
+    <t>Beautiful brand new looking hotel with great service. if i have to come back to area, will stay here again. I was impressed with room decor and amenities. All employees I encountered with were very nice and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Beautiful brand new looking hotel with great service. if i have to come back to area, will stay here again. I was impressed with room decor and amenities. All employees I encountered with were very nice and friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r420027771-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>420027771</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>Great Job</t>
+  </si>
+  <si>
+    <t>Great job on the new property.  Staff is friendly and helpful.  They went out of their way to make sure that everything met expectations at check in.  The rooms are first class.  I can't wait for all Hilton Garden Inn's to go thru updatingMoreShow less</t>
+  </si>
+  <si>
+    <t>TimP160WagonPoint, General Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded September 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2016</t>
+  </si>
+  <si>
+    <t>Great job on the new property.  Staff is friendly and helpful.  They went out of their way to make sure that everything met expectations at check in.  The rooms are first class.  I can't wait for all Hilton Garden Inn's to go thru updatingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r418628333-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>418628333</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t>Obviously recently built, rooms are styled very modern with minimal carpeting and functional work spaces. Half the price of the HGI off of 249, and worth the extra 5 minutes of traffic.  Check in was friendly and accommodating, and room was spotless.MoreShow less</t>
+  </si>
+  <si>
+    <t>Angel G, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded September 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2016</t>
+  </si>
+  <si>
+    <t>Obviously recently built, rooms are styled very modern with minimal carpeting and functional work spaces. Half the price of the HGI off of 249, and worth the extra 5 minutes of traffic.  Check in was friendly and accommodating, and room was spotless.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r418571638-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>418571638</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel and an AMAZING Staff</t>
+  </si>
+  <si>
+    <t>Recently stayed for one night; while be dropped off by a co worker who lives close by; an awesome front desk clerk was so kind as to help me with my bags.  The hotel is beautiful!  I can't wait to be able to stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Recently stayed for one night; while be dropped off by a co worker who lives close by; an awesome front desk clerk was so kind as to help me with my bags.  The hotel is beautiful!  I can't wait to be able to stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r413163368-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>413163368</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>Great staff.</t>
+  </si>
+  <si>
+    <t>Great new Hilton property. Needs a few cosmetic fixes stemming from the new construction, but they have and excellent staff and excellent service. Close to several great local restaurants, deli's and many of the big chain restaurants. MoreShow less</t>
+  </si>
+  <si>
+    <t>Aileen G, Front Office Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded September 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2016</t>
+  </si>
+  <si>
+    <t>Great new Hilton property. Needs a few cosmetic fixes stemming from the new construction, but they have and excellent staff and excellent service. Close to several great local restaurants, deli's and many of the big chain restaurants. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r411240214-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>411240214</t>
+  </si>
+  <si>
+    <t>08/26/2016</t>
+  </si>
+  <si>
+    <t>New Hotel at a Good Price</t>
+  </si>
+  <si>
+    <t>I had a meeting in Houston and the location of this hotel fit my needs and seemed less expensive than similar hotels in the area. When I got there it was very empty, maybe 10 or 15 cars in the parking lot and only one person in the lobby besides the two employees. It was clean and fresh, and I found out it was a very new hotel.  The neighborhood is probably not a great place for a jog, but if you are staying the night and want a nice room, a good night's sleep and a great cup of coffee, I recommend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert M, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded September 2, 2016</t>
+  </si>
+  <si>
+    <t>I had a meeting in Houston and the location of this hotel fit my needs and seemed less expensive than similar hotels in the area. When I got there it was very empty, maybe 10 or 15 cars in the parking lot and only one person in the lobby besides the two employees. It was clean and fresh, and I found out it was a very new hotel.  The neighborhood is probably not a great place for a jog, but if you are staying the night and want a nice room, a good night's sleep and a great cup of coffee, I recommend this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r406352313-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>406352313</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>Freaking Amazing</t>
+  </si>
+  <si>
+    <t>I booked this hotel based on the price and location and did not realize the hotel opened 2 weeks earlier.  This hotel had better been perfect for it being brand new.  The design was so modern and functional around the entire hotel.  Room were a very unique design that I have never seen at any of the properties.  I loved they were giving away the breakfast that morning, it was a nice touch.  As a Hhonors gold member, I will be checking out this hotel again when I am in the area.  Since I was there on business, I did not try out any of the amenities that were offered.  But the pool, business office and workout room looked really nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Angel G, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded August 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2016</t>
+  </si>
+  <si>
+    <t>I booked this hotel based on the price and location and did not realize the hotel opened 2 weeks earlier.  This hotel had better been perfect for it being brand new.  The design was so modern and functional around the entire hotel.  Room were a very unique design that I have never seen at any of the properties.  I loved they were giving away the breakfast that morning, it was a nice touch.  As a Hhonors gold member, I will be checking out this hotel again when I am in the area.  Since I was there on business, I did not try out any of the amenities that were offered.  But the pool, business office and workout room looked really nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r401939894-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>401939894</t>
+  </si>
+  <si>
+    <t>08/05/2016</t>
+  </si>
+  <si>
+    <t>Stay away from Hilton Garden Inn Cypress Houston</t>
+  </si>
+  <si>
+    <t>This was a terrible experience from the dirty room with no linens to the pool that was closed while it was over 100 degrees outside to the lack of ice to the undertstaff - I had to clean my own room the first night because it was not cleaned and had no towels or linens and then they changed the policy and started charging $12 for breakfast when I was told it was free when we checked in.  Plus there was no tree coverage - stay next door at the Courtyard by Marriott.  And I was offered NOTHING and since I had prepaid I was totally screwed.  And yes I am a Hiltons Honors memberMoreShow less</t>
+  </si>
+  <si>
+    <t>Angel G, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded August 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2016</t>
+  </si>
+  <si>
+    <t>This was a terrible experience from the dirty room with no linens to the pool that was closed while it was over 100 degrees outside to the lack of ice to the undertstaff - I had to clean my own room the first night because it was not cleaned and had no towels or linens and then they changed the policy and started charging $12 for breakfast when I was told it was free when we checked in.  Plus there was no tree coverage - stay next door at the Courtyard by Marriott.  And I was offered NOTHING and since I had prepaid I was totally screwed.  And yes I am a Hiltons Honors memberMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r399531881-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>399531881</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>Best stay ever.</t>
+  </si>
+  <si>
+    <t>I truly recommend this facility.   The staff is wonderful and the housing was the best I have ever experienced. The food was awesome, and the location was easy to find.  My experience with this facility was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Angel G, Guest Relations Manager at Hilton Garden Inn Houston Cypress Station, responded to this reviewResponded August 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2016</t>
+  </si>
+  <si>
+    <t>I truly recommend this facility.   The staff is wonderful and the housing was the best I have ever experienced. The food was awesome, and the location was easy to find.  My experience with this facility was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r397737773-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>397737773</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Disaster</t>
+  </si>
+  <si>
+    <t>I'm a diamond member and stay in hotels about every week for work. Clerk gives me a room on the first floor when I told her I did not like staying on the first floor. I did not stay in the room and she gave me a room on the 2nd floor. The room was fine I go to get food and come back an hour later to find someone else in MY ROOM, laying my bed!!! He was asleep and I woke him and he called the front desk. Mind you all of my processions were in the room and had been moved by the person in my room. The same clerk gave me another room down the hall and wrote the wrong room number so I could not get in the new room. I called her and she told me the correct room number this time. No real apology, no help moving my luggage to another room and the excuse was the system allowed her to book the same room. I talked to Aileen the front mgr the next morning who sincerely apologized and said more training was needed and the system could not book the same room. The clerk is not suited for this type of business, she has no people skills, no hospitality skills and no plain common sense. I felt my safety was in jeopardy In this situation.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm a diamond member and stay in hotels about every week for work. Clerk gives me a room on the first floor when I told her I did not like staying on the first floor. I did not stay in the room and she gave me a room on the 2nd floor. The room was fine I go to get food and come back an hour later to find someone else in MY ROOM, laying my bed!!! He was asleep and I woke him and he called the front desk. Mind you all of my processions were in the room and had been moved by the person in my room. The same clerk gave me another room down the hall and wrote the wrong room number so I could not get in the new room. I called her and she told me the correct room number this time. No real apology, no help moving my luggage to another room and the excuse was the system allowed her to book the same room. I talked to Aileen the front mgr the next morning who sincerely apologized and said more training was needed and the system could not book the same room. The clerk is not suited for this type of business, she has no people skills, no hospitality skills and no plain common sense. I felt my safety was in jeopardy In this situation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r393064071-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>393064071</t>
+  </si>
+  <si>
+    <t>07/15/2016</t>
+  </si>
+  <si>
+    <t>Awesome brand new hotel!</t>
+  </si>
+  <si>
+    <t>Will definitely be staying here when I come back to Houston. The staff was extremely friendly and the room was very contemporary and clean. The smell of brand new carpet and fresh linen really was a plus!MoreShow less</t>
+  </si>
+  <si>
+    <t>Will definitely be staying here when I come back to Houston. The staff was extremely friendly and the room was very contemporary and clean. The smell of brand new carpet and fresh linen really was a plus!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r389973035-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>389973035</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>Very clean rooms  and friendly staff</t>
+  </si>
+  <si>
+    <t>the hotel staff was very friendly and welcoming. If I needed anything they provided right away! I would highly recommend this hotel very highly... giving it 5 Stars. The restaurant was not open yet but I'm sure when it does it will have excellent food. The bar was very nice as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>the hotel staff was very friendly and welcoming. If I needed anything they provided right away! I would highly recommend this hotel very highly... giving it 5 Stars. The restaurant was not open yet but I'm sure when it does it will have excellent food. The bar was very nice as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9776353-r387006928-Hilton_Garden_Inn_Houston_Cypress_Station-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387006928</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Quick over night stay!</t>
+  </si>
+  <si>
+    <t>My husband &amp; I stayed here for one night to visit with family. The the hotel was very nice &amp; cozy the lobby was designed well. The gentleman at the front counter was friendly and courteous, I love that I was able to check in with my Hilton app by doing this everything was ready when I arrived. I was at the counter for less than a minute. The room was nice I really love the decor in this place the only thing is the sheets on the bed was very hard so I had a difficult time falling asleep and the water pressure from the bathroom sink was really low however the shower was great. The hotel looks new so maybe they are still working on somethings as this was not an issue for us because my stay was so short. The have a nice pool at night its beautiful with different color lights and coffee,organic tea, &amp; muffins in the lobby was a nice touch. Overall I would come back here in a heartbeat!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>My husband &amp; I stayed here for one night to visit with family. The the hotel was very nice &amp; cozy the lobby was designed well. The gentleman at the front counter was friendly and courteous, I love that I was able to check in with my Hilton app by doing this everything was ready when I arrived. I was at the counter for less than a minute. The room was nice I really love the decor in this place the only thing is the sheets on the bed was very hard so I had a difficult time falling asleep and the water pressure from the bathroom sink was really low however the shower was great. The hotel looks new so maybe they are still working on somethings as this was not an issue for us because my stay was so short. The have a nice pool at night its beautiful with different color lights and coffee,organic tea, &amp; muffins in the lobby was a nice touch. Overall I would come back here in a heartbeat!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2933,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2965,7289 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>77</v>
+      </c>
+      <c r="X6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>116</v>
+      </c>
+      <c r="X10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>99</v>
+      </c>
+      <c r="O12" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>133</v>
+      </c>
+      <c r="X12" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>99</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>141</v>
+      </c>
+      <c r="X13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>150</v>
+      </c>
+      <c r="X14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>150</v>
+      </c>
+      <c r="X15" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>149</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>164</v>
+      </c>
+      <c r="X16" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" t="s">
+        <v>171</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>172</v>
+      </c>
+      <c r="X17" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s">
+        <v>178</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>149</v>
+      </c>
+      <c r="O18" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>172</v>
+      </c>
+      <c r="X18" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" t="s">
+        <v>184</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>149</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>185</v>
+      </c>
+      <c r="X19" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" t="s">
+        <v>190</v>
+      </c>
+      <c r="K20" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s">
+        <v>192</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>193</v>
+      </c>
+      <c r="O20" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>194</v>
+      </c>
+      <c r="X20" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" t="s">
+        <v>200</v>
+      </c>
+      <c r="L21" t="s">
+        <v>201</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>193</v>
+      </c>
+      <c r="O21" t="s">
+        <v>76</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>194</v>
+      </c>
+      <c r="X21" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>204</v>
+      </c>
+      <c r="J22" t="s">
+        <v>205</v>
+      </c>
+      <c r="K22" t="s">
+        <v>206</v>
+      </c>
+      <c r="L22" t="s">
+        <v>207</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>193</v>
+      </c>
+      <c r="O22" t="s">
+        <v>76</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>208</v>
+      </c>
+      <c r="X22" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>211</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>212</v>
+      </c>
+      <c r="J23" t="s">
+        <v>213</v>
+      </c>
+      <c r="K23" t="s">
+        <v>214</v>
+      </c>
+      <c r="L23" t="s">
+        <v>215</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>216</v>
+      </c>
+      <c r="O23" t="s">
+        <v>68</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>217</v>
+      </c>
+      <c r="X23" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" t="s">
+        <v>222</v>
+      </c>
+      <c r="K24" t="s">
+        <v>223</v>
+      </c>
+      <c r="L24" t="s">
+        <v>224</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>216</v>
+      </c>
+      <c r="O24" t="s">
+        <v>76</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>225</v>
+      </c>
+      <c r="X24" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>228</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>229</v>
+      </c>
+      <c r="J25" t="s">
+        <v>230</v>
+      </c>
+      <c r="K25" t="s">
+        <v>231</v>
+      </c>
+      <c r="L25" t="s">
+        <v>232</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>216</v>
+      </c>
+      <c r="O25" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>233</v>
+      </c>
+      <c r="X25" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>237</v>
+      </c>
+      <c r="J26" t="s">
+        <v>238</v>
+      </c>
+      <c r="K26" t="s">
+        <v>239</v>
+      </c>
+      <c r="L26" t="s">
+        <v>240</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>241</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>242</v>
+      </c>
+      <c r="X26" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>246</v>
+      </c>
+      <c r="J27" t="s">
+        <v>247</v>
+      </c>
+      <c r="K27" t="s">
+        <v>248</v>
+      </c>
+      <c r="L27" t="s">
+        <v>249</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>250</v>
+      </c>
+      <c r="O27" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>251</v>
+      </c>
+      <c r="X27" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>253</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>254</v>
+      </c>
+      <c r="J28" t="s">
+        <v>255</v>
+      </c>
+      <c r="K28" t="s">
+        <v>256</v>
+      </c>
+      <c r="L28" t="s">
+        <v>257</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>250</v>
+      </c>
+      <c r="O28" t="s">
+        <v>258</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>251</v>
+      </c>
+      <c r="X28" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>260</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>261</v>
+      </c>
+      <c r="J29" t="s">
+        <v>262</v>
+      </c>
+      <c r="K29" t="s">
+        <v>263</v>
+      </c>
+      <c r="L29" t="s">
+        <v>264</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>265</v>
+      </c>
+      <c r="O29" t="s">
+        <v>76</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>266</v>
+      </c>
+      <c r="X29" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>269</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J30" t="s">
+        <v>271</v>
+      </c>
+      <c r="K30" t="s">
+        <v>272</v>
+      </c>
+      <c r="L30" t="s">
+        <v>273</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>265</v>
+      </c>
+      <c r="O30" t="s">
+        <v>76</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>274</v>
+      </c>
+      <c r="X30" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>277</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>278</v>
+      </c>
+      <c r="J31" t="s">
+        <v>279</v>
+      </c>
+      <c r="K31" t="s">
+        <v>280</v>
+      </c>
+      <c r="L31" t="s">
+        <v>281</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>265</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>282</v>
+      </c>
+      <c r="X31" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>285</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>286</v>
+      </c>
+      <c r="J32" t="s">
+        <v>287</v>
+      </c>
+      <c r="K32" t="s">
+        <v>288</v>
+      </c>
+      <c r="L32" t="s">
+        <v>289</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>265</v>
+      </c>
+      <c r="O32" t="s">
+        <v>258</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>290</v>
+      </c>
+      <c r="X32" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>293</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>294</v>
+      </c>
+      <c r="J33" t="s">
+        <v>295</v>
+      </c>
+      <c r="K33" t="s">
+        <v>296</v>
+      </c>
+      <c r="L33" t="s">
+        <v>297</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>265</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>298</v>
+      </c>
+      <c r="X33" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>301</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>302</v>
+      </c>
+      <c r="J34" t="s">
+        <v>303</v>
+      </c>
+      <c r="K34" t="s">
+        <v>304</v>
+      </c>
+      <c r="L34" t="s">
+        <v>305</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>306</v>
+      </c>
+      <c r="O34" t="s">
+        <v>258</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>307</v>
+      </c>
+      <c r="X34" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>309</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>310</v>
+      </c>
+      <c r="J35" t="s">
+        <v>311</v>
+      </c>
+      <c r="K35" t="s">
+        <v>312</v>
+      </c>
+      <c r="L35" t="s">
+        <v>313</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>306</v>
+      </c>
+      <c r="O35" t="s">
+        <v>76</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>314</v>
+      </c>
+      <c r="X35" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>317</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>318</v>
+      </c>
+      <c r="J36" t="s">
+        <v>319</v>
+      </c>
+      <c r="K36" t="s">
+        <v>320</v>
+      </c>
+      <c r="L36" t="s">
+        <v>321</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>241</v>
+      </c>
+      <c r="O36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>314</v>
+      </c>
+      <c r="X36" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>323</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>324</v>
+      </c>
+      <c r="J37" t="s">
+        <v>325</v>
+      </c>
+      <c r="K37" t="s">
+        <v>326</v>
+      </c>
+      <c r="L37" t="s">
+        <v>327</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>306</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>314</v>
+      </c>
+      <c r="X37" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>329</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>330</v>
+      </c>
+      <c r="J38" t="s">
+        <v>331</v>
+      </c>
+      <c r="K38" t="s">
+        <v>332</v>
+      </c>
+      <c r="L38" t="s">
+        <v>333</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>306</v>
+      </c>
+      <c r="O38" t="s">
+        <v>258</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>334</v>
+      </c>
+      <c r="X38" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>337</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>338</v>
+      </c>
+      <c r="J39" t="s">
+        <v>331</v>
+      </c>
+      <c r="K39" t="s">
+        <v>339</v>
+      </c>
+      <c r="L39" t="s">
+        <v>340</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>306</v>
+      </c>
+      <c r="O39" t="s">
+        <v>258</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>334</v>
+      </c>
+      <c r="X39" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>342</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>343</v>
+      </c>
+      <c r="J40" t="s">
+        <v>344</v>
+      </c>
+      <c r="K40" t="s">
+        <v>345</v>
+      </c>
+      <c r="L40" t="s">
+        <v>346</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>306</v>
+      </c>
+      <c r="O40" t="s">
+        <v>76</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>334</v>
+      </c>
+      <c r="X40" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>348</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>349</v>
+      </c>
+      <c r="J41" t="s">
+        <v>350</v>
+      </c>
+      <c r="K41" t="s">
+        <v>351</v>
+      </c>
+      <c r="L41" t="s">
+        <v>352</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>306</v>
+      </c>
+      <c r="O41" t="s">
+        <v>76</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>334</v>
+      </c>
+      <c r="X41" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>354</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>355</v>
+      </c>
+      <c r="J42" t="s">
+        <v>350</v>
+      </c>
+      <c r="K42" t="s">
+        <v>356</v>
+      </c>
+      <c r="L42" t="s">
+        <v>357</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>306</v>
+      </c>
+      <c r="O42" t="s">
+        <v>76</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>334</v>
+      </c>
+      <c r="X42" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>359</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>360</v>
+      </c>
+      <c r="J43" t="s">
+        <v>361</v>
+      </c>
+      <c r="K43" t="s">
+        <v>362</v>
+      </c>
+      <c r="L43" t="s">
+        <v>363</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>306</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>334</v>
+      </c>
+      <c r="X43" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>365</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>366</v>
+      </c>
+      <c r="J44" t="s">
+        <v>367</v>
+      </c>
+      <c r="K44" t="s">
+        <v>368</v>
+      </c>
+      <c r="L44" t="s">
+        <v>369</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>306</v>
+      </c>
+      <c r="O44" t="s">
+        <v>76</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>370</v>
+      </c>
+      <c r="X44" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>373</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>374</v>
+      </c>
+      <c r="J45" t="s">
+        <v>375</v>
+      </c>
+      <c r="K45" t="s">
+        <v>376</v>
+      </c>
+      <c r="L45" t="s">
+        <v>377</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>306</v>
+      </c>
+      <c r="O45" t="s">
+        <v>68</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>370</v>
+      </c>
+      <c r="X45" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>379</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>380</v>
+      </c>
+      <c r="J46" t="s">
+        <v>375</v>
+      </c>
+      <c r="K46" t="s">
+        <v>381</v>
+      </c>
+      <c r="L46" t="s">
+        <v>382</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>306</v>
+      </c>
+      <c r="O46" t="s">
+        <v>76</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>383</v>
+      </c>
+      <c r="X46" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>385</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>386</v>
+      </c>
+      <c r="J47" t="s">
+        <v>387</v>
+      </c>
+      <c r="K47" t="s">
+        <v>388</v>
+      </c>
+      <c r="L47" t="s">
+        <v>389</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>390</v>
+      </c>
+      <c r="X47" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>393</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>394</v>
+      </c>
+      <c r="J48" t="s">
+        <v>395</v>
+      </c>
+      <c r="K48" t="s">
+        <v>396</v>
+      </c>
+      <c r="L48" t="s">
+        <v>397</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>241</v>
+      </c>
+      <c r="O48" t="s">
+        <v>76</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>398</v>
+      </c>
+      <c r="X48" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>401</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>402</v>
+      </c>
+      <c r="J49" t="s">
+        <v>403</v>
+      </c>
+      <c r="K49" t="s">
+        <v>404</v>
+      </c>
+      <c r="L49" t="s">
+        <v>405</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>306</v>
+      </c>
+      <c r="O49" t="s">
+        <v>76</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>398</v>
+      </c>
+      <c r="X49" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>407</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>408</v>
+      </c>
+      <c r="J50" t="s">
+        <v>403</v>
+      </c>
+      <c r="K50" t="s">
+        <v>409</v>
+      </c>
+      <c r="L50" t="s">
+        <v>410</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>306</v>
+      </c>
+      <c r="O50" t="s">
+        <v>76</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>398</v>
+      </c>
+      <c r="X50" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>412</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>413</v>
+      </c>
+      <c r="J51" t="s">
+        <v>403</v>
+      </c>
+      <c r="K51" t="s">
+        <v>414</v>
+      </c>
+      <c r="L51" t="s">
+        <v>415</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>306</v>
+      </c>
+      <c r="O51" t="s">
+        <v>76</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>398</v>
+      </c>
+      <c r="X51" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>417</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>418</v>
+      </c>
+      <c r="J52" t="s">
+        <v>419</v>
+      </c>
+      <c r="K52" t="s">
+        <v>420</v>
+      </c>
+      <c r="L52" t="s">
+        <v>421</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>306</v>
+      </c>
+      <c r="O52" t="s">
+        <v>76</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>398</v>
+      </c>
+      <c r="X52" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>423</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>424</v>
+      </c>
+      <c r="J53" t="s">
+        <v>425</v>
+      </c>
+      <c r="K53" t="s">
+        <v>426</v>
+      </c>
+      <c r="L53" t="s">
+        <v>427</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>241</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>428</v>
+      </c>
+      <c r="X53" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>431</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>432</v>
+      </c>
+      <c r="J54" t="s">
+        <v>433</v>
+      </c>
+      <c r="K54" t="s">
+        <v>434</v>
+      </c>
+      <c r="L54" t="s">
+        <v>435</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>436</v>
+      </c>
+      <c r="O54" t="s">
+        <v>59</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>428</v>
+      </c>
+      <c r="X54" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>438</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>439</v>
+      </c>
+      <c r="J55" t="s">
+        <v>440</v>
+      </c>
+      <c r="K55" t="s">
+        <v>441</v>
+      </c>
+      <c r="L55" t="s">
+        <v>442</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>241</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>428</v>
+      </c>
+      <c r="X55" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>444</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>445</v>
+      </c>
+      <c r="J56" t="s">
+        <v>446</v>
+      </c>
+      <c r="K56" t="s">
+        <v>447</v>
+      </c>
+      <c r="L56" t="s">
+        <v>448</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>241</v>
+      </c>
+      <c r="O56" t="s">
+        <v>76</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>449</v>
+      </c>
+      <c r="X56" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>452</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>453</v>
+      </c>
+      <c r="J57" t="s">
+        <v>454</v>
+      </c>
+      <c r="K57" t="s">
+        <v>455</v>
+      </c>
+      <c r="L57" t="s">
+        <v>456</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>241</v>
+      </c>
+      <c r="O57" t="s">
+        <v>68</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>457</v>
+      </c>
+      <c r="X57" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>460</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>461</v>
+      </c>
+      <c r="J58" t="s">
+        <v>462</v>
+      </c>
+      <c r="K58" t="s">
+        <v>463</v>
+      </c>
+      <c r="L58" t="s">
+        <v>464</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>241</v>
+      </c>
+      <c r="O58" t="s">
+        <v>76</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>457</v>
+      </c>
+      <c r="X58" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>466</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>467</v>
+      </c>
+      <c r="J59" t="s">
+        <v>468</v>
+      </c>
+      <c r="K59" t="s">
+        <v>469</v>
+      </c>
+      <c r="L59" t="s">
+        <v>470</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>436</v>
+      </c>
+      <c r="O59" t="s">
+        <v>76</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>471</v>
+      </c>
+      <c r="X59" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>474</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>475</v>
+      </c>
+      <c r="J60" t="s">
+        <v>476</v>
+      </c>
+      <c r="K60" t="s">
+        <v>477</v>
+      </c>
+      <c r="L60" t="s">
+        <v>478</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>436</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>479</v>
+      </c>
+      <c r="X60" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>482</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>483</v>
+      </c>
+      <c r="J61" t="s">
+        <v>484</v>
+      </c>
+      <c r="K61" t="s">
+        <v>485</v>
+      </c>
+      <c r="L61" t="s">
+        <v>486</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>436</v>
+      </c>
+      <c r="O61" t="s">
+        <v>76</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>487</v>
+      </c>
+      <c r="X61" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>490</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>491</v>
+      </c>
+      <c r="J62" t="s">
+        <v>492</v>
+      </c>
+      <c r="K62" t="s">
+        <v>493</v>
+      </c>
+      <c r="L62" t="s">
+        <v>494</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>495</v>
+      </c>
+      <c r="O62" t="s">
+        <v>76</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>496</v>
+      </c>
+      <c r="X62" t="s">
+        <v>497</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>499</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>500</v>
+      </c>
+      <c r="J63" t="s">
+        <v>501</v>
+      </c>
+      <c r="K63" t="s">
+        <v>502</v>
+      </c>
+      <c r="L63" t="s">
+        <v>503</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>495</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>504</v>
+      </c>
+      <c r="X63" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>507</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>508</v>
+      </c>
+      <c r="J64" t="s">
+        <v>501</v>
+      </c>
+      <c r="K64" t="s">
+        <v>509</v>
+      </c>
+      <c r="L64" t="s">
+        <v>510</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>495</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>504</v>
+      </c>
+      <c r="X64" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>512</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>513</v>
+      </c>
+      <c r="J65" t="s">
+        <v>514</v>
+      </c>
+      <c r="K65" t="s">
+        <v>515</v>
+      </c>
+      <c r="L65" t="s">
+        <v>516</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>517</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>518</v>
+      </c>
+      <c r="X65" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>521</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>522</v>
+      </c>
+      <c r="J66" t="s">
+        <v>523</v>
+      </c>
+      <c r="K66" t="s">
+        <v>524</v>
+      </c>
+      <c r="L66" t="s">
+        <v>525</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>495</v>
+      </c>
+      <c r="O66" t="s">
+        <v>76</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>526</v>
+      </c>
+      <c r="X66" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>529</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>530</v>
+      </c>
+      <c r="J67" t="s">
+        <v>531</v>
+      </c>
+      <c r="K67" t="s">
+        <v>532</v>
+      </c>
+      <c r="L67" t="s">
+        <v>533</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>517</v>
+      </c>
+      <c r="O67" t="s">
+        <v>76</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>534</v>
+      </c>
+      <c r="X67" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>537</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>538</v>
+      </c>
+      <c r="J68" t="s">
+        <v>539</v>
+      </c>
+      <c r="K68" t="s">
+        <v>540</v>
+      </c>
+      <c r="L68" t="s">
+        <v>541</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>517</v>
+      </c>
+      <c r="O68" t="s">
+        <v>76</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>542</v>
+      </c>
+      <c r="X68" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>545</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>546</v>
+      </c>
+      <c r="J69" t="s">
+        <v>547</v>
+      </c>
+      <c r="K69" t="s">
+        <v>548</v>
+      </c>
+      <c r="L69" t="s">
+        <v>549</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>550</v>
+      </c>
+      <c r="O69" t="s">
+        <v>76</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>551</v>
+      </c>
+      <c r="X69" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>554</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>555</v>
+      </c>
+      <c r="J70" t="s">
+        <v>556</v>
+      </c>
+      <c r="K70" t="s">
+        <v>557</v>
+      </c>
+      <c r="L70" t="s">
+        <v>558</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>517</v>
+      </c>
+      <c r="O70" t="s">
+        <v>76</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>551</v>
+      </c>
+      <c r="X70" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>560</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>561</v>
+      </c>
+      <c r="J71" t="s">
+        <v>562</v>
+      </c>
+      <c r="K71" t="s">
+        <v>563</v>
+      </c>
+      <c r="L71" t="s">
+        <v>564</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>550</v>
+      </c>
+      <c r="O71" t="s">
+        <v>258</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>565</v>
+      </c>
+      <c r="X71" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>568</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>569</v>
+      </c>
+      <c r="J72" t="s">
+        <v>570</v>
+      </c>
+      <c r="K72" t="s">
+        <v>571</v>
+      </c>
+      <c r="L72" t="s">
+        <v>572</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>550</v>
+      </c>
+      <c r="O72" t="s">
+        <v>76</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>573</v>
+      </c>
+      <c r="X72" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>576</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>577</v>
+      </c>
+      <c r="J73" t="s">
+        <v>578</v>
+      </c>
+      <c r="K73" t="s">
+        <v>579</v>
+      </c>
+      <c r="L73" t="s">
+        <v>580</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>550</v>
+      </c>
+      <c r="O73" t="s">
+        <v>76</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>573</v>
+      </c>
+      <c r="X73" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>582</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>583</v>
+      </c>
+      <c r="J74" t="s">
+        <v>584</v>
+      </c>
+      <c r="K74" t="s">
+        <v>585</v>
+      </c>
+      <c r="L74" t="s">
+        <v>586</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>587</v>
+      </c>
+      <c r="O74" t="s">
+        <v>68</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>588</v>
+      </c>
+      <c r="X74" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>591</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>592</v>
+      </c>
+      <c r="J75" t="s">
+        <v>593</v>
+      </c>
+      <c r="K75" t="s">
+        <v>594</v>
+      </c>
+      <c r="L75" t="s">
+        <v>595</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>587</v>
+      </c>
+      <c r="O75" t="s">
+        <v>76</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>573</v>
+      </c>
+      <c r="X75" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>597</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>598</v>
+      </c>
+      <c r="J76" t="s">
+        <v>599</v>
+      </c>
+      <c r="K76" t="s">
+        <v>356</v>
+      </c>
+      <c r="L76" t="s">
+        <v>600</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>587</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>573</v>
+      </c>
+      <c r="X76" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>602</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>603</v>
+      </c>
+      <c r="J77" t="s">
+        <v>604</v>
+      </c>
+      <c r="K77" t="s">
+        <v>605</v>
+      </c>
+      <c r="L77" t="s">
+        <v>606</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>607</v>
+      </c>
+      <c r="O77" t="s">
+        <v>76</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>282</v>
+      </c>
+      <c r="X77" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>609</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>610</v>
+      </c>
+      <c r="J78" t="s">
+        <v>611</v>
+      </c>
+      <c r="K78" t="s">
+        <v>612</v>
+      </c>
+      <c r="L78" t="s">
+        <v>613</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>607</v>
+      </c>
+      <c r="O78" t="s">
+        <v>76</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>565</v>
+      </c>
+      <c r="X78" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>615</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>616</v>
+      </c>
+      <c r="J79" t="s">
+        <v>617</v>
+      </c>
+      <c r="K79" t="s">
+        <v>618</v>
+      </c>
+      <c r="L79" t="s">
+        <v>619</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>607</v>
+      </c>
+      <c r="O79" t="s">
+        <v>76</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>620</v>
+      </c>
+      <c r="X79" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>623</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>624</v>
+      </c>
+      <c r="J80" t="s">
+        <v>625</v>
+      </c>
+      <c r="K80" t="s">
+        <v>626</v>
+      </c>
+      <c r="L80" t="s">
+        <v>627</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>607</v>
+      </c>
+      <c r="O80" t="s">
+        <v>76</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>628</v>
+      </c>
+      <c r="X80" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>631</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>632</v>
+      </c>
+      <c r="J81" t="s">
+        <v>633</v>
+      </c>
+      <c r="K81" t="s">
+        <v>634</v>
+      </c>
+      <c r="L81" t="s">
+        <v>635</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>607</v>
+      </c>
+      <c r="O81" t="s">
+        <v>68</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>628</v>
+      </c>
+      <c r="X81" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>637</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>638</v>
+      </c>
+      <c r="J82" t="s">
+        <v>639</v>
+      </c>
+      <c r="K82" t="s">
+        <v>640</v>
+      </c>
+      <c r="L82" t="s">
+        <v>641</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>607</v>
+      </c>
+      <c r="O82" t="s">
+        <v>76</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>628</v>
+      </c>
+      <c r="X82" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>643</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>644</v>
+      </c>
+      <c r="J83" t="s">
+        <v>645</v>
+      </c>
+      <c r="K83" t="s">
+        <v>646</v>
+      </c>
+      <c r="L83" t="s">
+        <v>647</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>607</v>
+      </c>
+      <c r="O83" t="s">
+        <v>59</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>628</v>
+      </c>
+      <c r="X83" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>649</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>650</v>
+      </c>
+      <c r="J84" t="s">
+        <v>651</v>
+      </c>
+      <c r="K84" t="s">
+        <v>652</v>
+      </c>
+      <c r="L84" t="s">
+        <v>653</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>607</v>
+      </c>
+      <c r="O84" t="s">
+        <v>258</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>628</v>
+      </c>
+      <c r="X84" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>655</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>656</v>
+      </c>
+      <c r="J85" t="s">
+        <v>657</v>
+      </c>
+      <c r="K85" t="s">
+        <v>658</v>
+      </c>
+      <c r="L85" t="s">
+        <v>659</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>660</v>
+      </c>
+      <c r="O85" t="s">
+        <v>76</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>628</v>
+      </c>
+      <c r="X85" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>662</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>663</v>
+      </c>
+      <c r="J86" t="s">
+        <v>664</v>
+      </c>
+      <c r="K86" t="s">
+        <v>665</v>
+      </c>
+      <c r="L86" t="s">
+        <v>666</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>667</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>565</v>
+      </c>
+      <c r="X86" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>669</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>670</v>
+      </c>
+      <c r="J87" t="s">
+        <v>671</v>
+      </c>
+      <c r="K87" t="s">
+        <v>672</v>
+      </c>
+      <c r="L87" t="s">
+        <v>673</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>667</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>674</v>
+      </c>
+      <c r="X87" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>677</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>678</v>
+      </c>
+      <c r="J88" t="s">
+        <v>679</v>
+      </c>
+      <c r="K88" t="s">
+        <v>680</v>
+      </c>
+      <c r="L88" t="s">
+        <v>681</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>667</v>
+      </c>
+      <c r="O88" t="s">
+        <v>76</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>682</v>
+      </c>
+      <c r="X88" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>685</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>686</v>
+      </c>
+      <c r="J89" t="s">
+        <v>687</v>
+      </c>
+      <c r="K89" t="s">
+        <v>688</v>
+      </c>
+      <c r="L89" t="s">
+        <v>689</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>667</v>
+      </c>
+      <c r="O89" t="s">
+        <v>76</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>690</v>
+      </c>
+      <c r="X89" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>693</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>694</v>
+      </c>
+      <c r="J90" t="s">
+        <v>695</v>
+      </c>
+      <c r="K90" t="s">
+        <v>696</v>
+      </c>
+      <c r="L90" t="s">
+        <v>697</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>698</v>
+      </c>
+      <c r="O90" t="s">
+        <v>76</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>699</v>
+      </c>
+      <c r="X90" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>702</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>703</v>
+      </c>
+      <c r="J91" t="s">
+        <v>695</v>
+      </c>
+      <c r="K91" t="s">
+        <v>704</v>
+      </c>
+      <c r="L91" t="s">
+        <v>705</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>698</v>
+      </c>
+      <c r="O91" t="s">
+        <v>76</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>699</v>
+      </c>
+      <c r="X91" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>707</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>708</v>
+      </c>
+      <c r="J92" t="s">
+        <v>709</v>
+      </c>
+      <c r="K92" t="s">
+        <v>710</v>
+      </c>
+      <c r="L92" t="s">
+        <v>711</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>698</v>
+      </c>
+      <c r="O92" t="s">
+        <v>76</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>712</v>
+      </c>
+      <c r="X92" t="s">
+        <v>713</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>715</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>716</v>
+      </c>
+      <c r="J93" t="s">
+        <v>717</v>
+      </c>
+      <c r="K93" t="s">
+        <v>718</v>
+      </c>
+      <c r="L93" t="s">
+        <v>719</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>698</v>
+      </c>
+      <c r="O93" t="s">
+        <v>258</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>720</v>
+      </c>
+      <c r="X93" t="s">
+        <v>721</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>723</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>724</v>
+      </c>
+      <c r="J94" t="s">
+        <v>725</v>
+      </c>
+      <c r="K94" t="s">
+        <v>726</v>
+      </c>
+      <c r="L94" t="s">
+        <v>727</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>698</v>
+      </c>
+      <c r="O94" t="s">
+        <v>76</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>728</v>
+      </c>
+      <c r="X94" t="s">
+        <v>729</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>731</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>732</v>
+      </c>
+      <c r="J95" t="s">
+        <v>733</v>
+      </c>
+      <c r="K95" t="s">
+        <v>734</v>
+      </c>
+      <c r="L95" t="s">
+        <v>735</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>736</v>
+      </c>
+      <c r="O95" t="s">
+        <v>76</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="s"/>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>737</v>
+      </c>
+      <c r="X95" t="s">
+        <v>738</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>740</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>741</v>
+      </c>
+      <c r="J96" t="s">
+        <v>742</v>
+      </c>
+      <c r="K96" t="s">
+        <v>743</v>
+      </c>
+      <c r="L96" t="s">
+        <v>744</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>736</v>
+      </c>
+      <c r="O96" t="s">
+        <v>76</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>745</v>
+      </c>
+      <c r="X96" t="s">
+        <v>746</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>748</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>749</v>
+      </c>
+      <c r="J97" t="s">
+        <v>750</v>
+      </c>
+      <c r="K97" t="s">
+        <v>751</v>
+      </c>
+      <c r="L97" t="s">
+        <v>752</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>736</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>745</v>
+      </c>
+      <c r="X97" t="s">
+        <v>746</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>754</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>755</v>
+      </c>
+      <c r="J98" t="s">
+        <v>756</v>
+      </c>
+      <c r="K98" t="s">
+        <v>757</v>
+      </c>
+      <c r="L98" t="s">
+        <v>758</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>736</v>
+      </c>
+      <c r="O98" t="s">
+        <v>76</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>759</v>
+      </c>
+      <c r="X98" t="s">
+        <v>760</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>762</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>763</v>
+      </c>
+      <c r="J99" t="s">
+        <v>764</v>
+      </c>
+      <c r="K99" t="s">
+        <v>696</v>
+      </c>
+      <c r="L99" t="s">
+        <v>765</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>736</v>
+      </c>
+      <c r="O99" t="s">
+        <v>76</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>766</v>
+      </c>
+      <c r="X99" t="s">
+        <v>767</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>769</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>770</v>
+      </c>
+      <c r="J100" t="s">
+        <v>764</v>
+      </c>
+      <c r="K100" t="s">
+        <v>771</v>
+      </c>
+      <c r="L100" t="s">
+        <v>772</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>773</v>
+      </c>
+      <c r="O100" t="s">
+        <v>76</v>
+      </c>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>766</v>
+      </c>
+      <c r="X100" t="s">
+        <v>767</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>775</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>776</v>
+      </c>
+      <c r="J101" t="s">
+        <v>777</v>
+      </c>
+      <c r="K101" t="s">
+        <v>778</v>
+      </c>
+      <c r="L101" t="s">
+        <v>779</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>773</v>
+      </c>
+      <c r="O101" t="s">
+        <v>76</v>
+      </c>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="s"/>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>780</v>
+      </c>
+      <c r="X101" t="s">
+        <v>781</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>783</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>784</v>
+      </c>
+      <c r="J102" t="s">
+        <v>785</v>
+      </c>
+      <c r="K102" t="s">
+        <v>786</v>
+      </c>
+      <c r="L102" t="s">
+        <v>787</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>773</v>
+      </c>
+      <c r="O102" t="s">
+        <v>76</v>
+      </c>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="s"/>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="s"/>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>788</v>
+      </c>
+      <c r="X102" t="s">
+        <v>781</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>790</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>791</v>
+      </c>
+      <c r="J103" t="s">
+        <v>792</v>
+      </c>
+      <c r="K103" t="s">
+        <v>793</v>
+      </c>
+      <c r="L103" t="s">
+        <v>794</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>773</v>
+      </c>
+      <c r="O103" t="s">
+        <v>76</v>
+      </c>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="s"/>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>795</v>
+      </c>
+      <c r="X103" t="s">
+        <v>796</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>798</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>799</v>
+      </c>
+      <c r="J104" t="s">
+        <v>800</v>
+      </c>
+      <c r="K104" t="s">
+        <v>801</v>
+      </c>
+      <c r="L104" t="s">
+        <v>802</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="s">
+        <v>773</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>1</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2</v>
+      </c>
+      <c r="S104" t="n">
+        <v>1</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>1</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>803</v>
+      </c>
+      <c r="X104" t="s">
+        <v>804</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>806</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>807</v>
+      </c>
+      <c r="J105" t="s">
+        <v>808</v>
+      </c>
+      <c r="K105" t="s">
+        <v>809</v>
+      </c>
+      <c r="L105" t="s">
+        <v>810</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>811</v>
+      </c>
+      <c r="O105" t="s">
+        <v>53</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>812</v>
+      </c>
+      <c r="X105" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>815</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>816</v>
+      </c>
+      <c r="J106" t="s">
+        <v>817</v>
+      </c>
+      <c r="K106" t="s">
+        <v>818</v>
+      </c>
+      <c r="L106" t="s">
+        <v>819</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="s">
+        <v>811</v>
+      </c>
+      <c r="O106" t="s">
+        <v>76</v>
+      </c>
+      <c r="P106" t="s"/>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="s"/>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>812</v>
+      </c>
+      <c r="X106" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>821</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>822</v>
+      </c>
+      <c r="J107" t="s">
+        <v>823</v>
+      </c>
+      <c r="K107" t="s">
+        <v>824</v>
+      </c>
+      <c r="L107" t="s">
+        <v>825</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>811</v>
+      </c>
+      <c r="O107" t="s">
+        <v>76</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>812</v>
+      </c>
+      <c r="X107" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>827</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>828</v>
+      </c>
+      <c r="J108" t="s">
+        <v>829</v>
+      </c>
+      <c r="K108" t="s">
+        <v>830</v>
+      </c>
+      <c r="L108" t="s">
+        <v>831</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>811</v>
+      </c>
+      <c r="O108" t="s">
+        <v>53</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>812</v>
+      </c>
+      <c r="X108" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>65094</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>833</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>834</v>
+      </c>
+      <c r="J109" t="s">
+        <v>835</v>
+      </c>
+      <c r="K109" t="s">
+        <v>836</v>
+      </c>
+      <c r="L109" t="s">
+        <v>837</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>838</v>
+      </c>
+      <c r="O109" t="s">
+        <v>68</v>
+      </c>
+      <c r="P109" t="s"/>
+      <c r="Q109" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="s"/>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>4</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>812</v>
+      </c>
+      <c r="X109" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>839</v>
       </c>
     </row>
   </sheetData>
